--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\Trabajo-Cripto\Trabajo-Cripto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C91F964-42B3-4E28-90C1-2B1FE5BB5D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3104D570-4BAE-4A0B-A25A-06BEF2BC1EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="2592" windowWidth="18031" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Nickname</t>
   </si>
@@ -28,34 +28,106 @@
     <t>Contraseña</t>
   </si>
   <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>jeje</t>
-  </si>
-  <si>
-    <t>pepe</t>
-  </si>
-  <si>
-    <t>pepinillos</t>
-  </si>
-  <si>
-    <t>maripili</t>
-  </si>
-  <si>
-    <t>drowning conejos</t>
-  </si>
-  <si>
-    <t>Fernando Contreras</t>
-  </si>
-  <si>
-    <t>mother is mothering</t>
-  </si>
-  <si>
-    <t>Camilo Triana</t>
-  </si>
-  <si>
-    <t>Chococrispies</t>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Luffy</t>
+  </si>
+  <si>
+    <t>Gorro de paja 89</t>
+  </si>
+  <si>
+    <t>b'\xbd\xd5\xec\xd2\xb0C\n\xcd\xd8\xa1\x05\xaat\xeeH\x94'</t>
+  </si>
+  <si>
+    <t>b'jG\xb1J\xd1\xa6\x86\x9c\xfb\xfa\xd7\xed\xebn\x94\x89:\x9a\x0c\xbc`\xab\x92\xc5\xd4I\xde\xaf\xcfR\xe1\x86'</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>Bell Mere 519</t>
+  </si>
+  <si>
+    <t>b'/\r9*wf\x83\xe1\xbe\xa3\xcf\x12\xb6\x8a\x1b\x9e'</t>
+  </si>
+  <si>
+    <t>b'f\xa0\xcd\x16\xc2\xaa\xdc-\xfe\x16\xc2\x7f\x1du\xa44\xe9K\xe1\x01.\xa6\xdeY\xae\xff5r\x1c\xeb\xa4\xe3'</t>
+  </si>
+  <si>
+    <t>Maripili</t>
+  </si>
+  <si>
+    <t>Adoro a mis nietos</t>
+  </si>
+  <si>
+    <t>b'\xab9\xebaL\x18\x08\x15\x88\xc8x\xc3n\x83\x8aE'</t>
+  </si>
+  <si>
+    <t>b'\x87^\xad2\xd5\xca\xff\'\r\xdeZK\x8f\x15\x98"\xee\x8bY\x17\x85M_ZW\x88\x0e\xb4\x82\xa3\x90\xaa'</t>
+  </si>
+  <si>
+    <t>Sanji</t>
+  </si>
+  <si>
+    <t>Creme Brulee 1998</t>
+  </si>
+  <si>
+    <t>b'\r]\xb9\xc7 \xe5!\xc6\x93.\xfbK\xd5KSF'</t>
+  </si>
+  <si>
+    <t>b'/\x98\x11\\\x8d\xa7=\xa1\x00\x02\xc5\xde\x02\xf74]\x82\xe0\xcd\x01pr\x15\xc3F\xf8\xd4\x95\x89\xf7\xe1\xba'</t>
+  </si>
+  <si>
+    <t>Usopp</t>
+  </si>
+  <si>
+    <t>Vienen los piratas</t>
+  </si>
+  <si>
+    <t>b'N)!\xa8\x1c\xcc\xb9@\x8a\xfa(\x0b(\xb8$\xfc'</t>
+  </si>
+  <si>
+    <t>b'\x18\r\xdd)\xe8U\xc5\xbeV\xb2|\x13\xca&lt;\xa1^y\x90\xcc\x92B3\xaf\x88\x86 \xd3N0\xf0|\xa6'</t>
+  </si>
+  <si>
+    <t>Zoro</t>
+  </si>
+  <si>
+    <t>El mejor Espadachin 125</t>
+  </si>
+  <si>
+    <t>b'v4U\x91\xa4@\xb7\xea\xfbQYc:&gt;\xd7\x80'</t>
+  </si>
+  <si>
+    <t>b'v\xd4\xe7\xc7g\x99\x86\xbd\x90O\x1d\x07\x7f\xc7\x8a\x9f\x16\xf8\xb3`lk\xfc\xed\xfdK\x1d\xc7+I\x8c\xaa'</t>
+  </si>
+  <si>
+    <t>Shanks</t>
+  </si>
+  <si>
+    <t>Grand Line 1956</t>
+  </si>
+  <si>
+    <t>b'\xe9\xf9v=\x00L\xb16\xdc\xef\x10!\xaeS\xa5\xf1'</t>
+  </si>
+  <si>
+    <t>b'E\xb2\xd2\x06A\xc1\xdb\xb90@\xe1\x92\xb6J\xbc)\xb0k0W\xd5\x9c\xe3\xf1\xea+k,3\xaf\xf1v'</t>
+  </si>
+  <si>
+    <t>Arlong</t>
+  </si>
+  <si>
+    <t>Gyojin Park 556</t>
+  </si>
+  <si>
+    <t>b"\xdc+\xcc\x0b'\xbbR\xbd\xf5N\xfa\xcd\x0c|\xf1\x85"</t>
+  </si>
+  <si>
+    <t>b'\xa7\xf3\xebV?\x9f3\xd7\x84QaD\xbf\x1d\xd6|z\xc7\xc9\xbc7\x1d|3\x02\x90\xf6\xc7U\x8f\xb8\xcf'</t>
   </si>
 </sst>
 </file>
@@ -419,64 +491,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -1,157 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC35869-DC2B-4B33-B107-50286F6A6B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Contraseña</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Luffy</t>
-  </si>
-  <si>
-    <t>Gorro de paja 89</t>
-  </si>
-  <si>
-    <t>b'\xbd\xd5\xec\xd2\xb0C\n\xcd\xd8\xa1\x05\xaat\xeeH\x94'</t>
-  </si>
-  <si>
-    <t>b'jG\xb1J\xd1\xa6\x86\x9c\xfb\xfa\xd7\xed\xebn\x94\x89:\x9a\x0c\xbc`\xab\x92\xc5\xd4I\xde\xaf\xcfR\xe1\x86'</t>
-  </si>
-  <si>
-    <t>Nami</t>
-  </si>
-  <si>
-    <t>Bell Mere 519</t>
-  </si>
-  <si>
-    <t>b'/\r9*wf\x83\xe1\xbe\xa3\xcf\x12\xb6\x8a\x1b\x9e'</t>
-  </si>
-  <si>
-    <t>b'f\xa0\xcd\x16\xc2\xaa\xdc-\xfe\x16\xc2\x7f\x1du\xa44\xe9K\xe1\x01.\xa6\xdeY\xae\xff5r\x1c\xeb\xa4\xe3'</t>
-  </si>
-  <si>
-    <t>Maripili</t>
-  </si>
-  <si>
-    <t>Adoro a mis nietos</t>
-  </si>
-  <si>
-    <t>b'\xab9\xebaL\x18\x08\x15\x88\xc8x\xc3n\x83\x8aE'</t>
-  </si>
-  <si>
-    <t>b'\x87^\xad2\xd5\xca\xff\'\r\xdeZK\x8f\x15\x98"\xee\x8bY\x17\x85M_ZW\x88\x0e\xb4\x82\xa3\x90\xaa'</t>
-  </si>
-  <si>
-    <t>Sanji</t>
-  </si>
-  <si>
-    <t>Creme Brulee 1998</t>
-  </si>
-  <si>
-    <t>b'\r]\xb9\xc7 \xe5!\xc6\x93.\xfbK\xd5KSF'</t>
-  </si>
-  <si>
-    <t>b'/\x98\x11\\\x8d\xa7=\xa1\x00\x02\xc5\xde\x02\xf74]\x82\xe0\xcd\x01pr\x15\xc3F\xf8\xd4\x95\x89\xf7\xe1\xba'</t>
-  </si>
-  <si>
-    <t>Usopp</t>
-  </si>
-  <si>
-    <t>Vienen los piratas</t>
-  </si>
-  <si>
-    <t>b'N)!\xa8\x1c\xcc\xb9@\x8a\xfa(\x0b(\xb8$\xfc'</t>
-  </si>
-  <si>
-    <t>b'\x18\r\xdd)\xe8U\xc5\xbeV\xb2|\x13\xca&lt;\xa1^y\x90\xcc\x92B3\xaf\x88\x86 \xd3N0\xf0|\xa6'</t>
-  </si>
-  <si>
-    <t>Zoro</t>
-  </si>
-  <si>
-    <t>El mejor Espadachin 125</t>
-  </si>
-  <si>
-    <t>b'v4U\x91\xa4@\xb7\xea\xfbQYc:&gt;\xd7\x80'</t>
-  </si>
-  <si>
-    <t>b'v\xd4\xe7\xc7g\x99\x86\xbd\x90O\x1d\x07\x7f\xc7\x8a\x9f\x16\xf8\xb3`lk\xfc\xed\xfdK\x1d\xc7+I\x8c\xaa'</t>
-  </si>
-  <si>
-    <t>Shanks</t>
-  </si>
-  <si>
-    <t>Grand Line 1956</t>
-  </si>
-  <si>
-    <t>b'\xe9\xf9v=\x00L\xb16\xdc\xef\x10!\xaeS\xa5\xf1'</t>
-  </si>
-  <si>
-    <t>b'E\xb2\xd2\x06A\xc1\xdb\xb90@\xe1\x92\xb6J\xbc)\xb0k0W\xd5\x9c\xe3\xf1\xea+k,3\xaf\xf1v'</t>
-  </si>
-  <si>
-    <t>Arlong</t>
-  </si>
-  <si>
-    <t>Gyojin Park 556</t>
-  </si>
-  <si>
-    <t>b"\xdc+\xcc\x0b'\xbbR\xbd\xf5N\xfa\xcd\x0c|\xf1\x85"</t>
-  </si>
-  <si>
-    <t>b'\xa7\xf3\xebV?\x9f3\xd7\x84QaD\xbf\x1d\xd6|z\xc7\xc9\xbc7\x1d|3\x02\x90\xf6\xc7U\x8f\xb8\xcf'</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -166,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -490,143 +420,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nickname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Contraseña</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Salt</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gorro de paja 89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b'\x03f\xf6\x7f\xc8\xd9=`%\x00\xa3\xaa\xd5\x08\x91\x1f'</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D1199B190&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bell Mere 519</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b'\xb5\x93\x93"\xb5w\xc4$\xaa\x91@\x88}\xea\x98\xde'</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D6E2B7B90&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maripili</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adoro a mis nietos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>b'*\xdf\xb1}\xb9\xabW*\xf8\xb3\xd4!g\x1b\xa6\x8b'</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D7FEABB90&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Creme Brulee 1998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b'&amp;\xc1\x0b\xf1M\x10\xcc\xbbjvE*,\x80s\xa1'</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D11B20610&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Usopp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vienen los piratas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>b'\xb3\xd0b\xbf \xb2 rK\x17\x17\x97\xe6\xec\x93\xa8'</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D11BCFD90&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>El mejor Espadachin 125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>b' .\xe0#{u/\xf1\xd6z\x9c(\x16\xbc\xb3\xf4'</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D11BD65D0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shanks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand Line 1956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>b'C\n\xa8\x0cU\xca,w/\xc5\xaf\x0fbN\xc7\xd6'</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D11BE8890&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arlong</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gyojin Park 556</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>b'\x96c\xf4\xb1WT\xd9a\xf1\x97qBE0\xa6o'</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D117598D0&gt;</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -1,37 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F163CB-E46F-4F77-B713-283C0B5D10A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Luffy</t>
+  </si>
+  <si>
+    <t>b'y\x94\xc4P\xedR\xfe\xf8\xcc\x85\xa0\xf0\xe8\x84\x05\xec'</t>
+  </si>
+  <si>
+    <t>b'\xfa\xfbmI\xa6\x08\xbb\x17x\x82\xe4\xf1\x9e\xcf\xb9\xa3)\xa5h4Pup{\xef&lt;#}\x19SW\xd2'</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>b'\x83\xb7|\x8e\x85\xa7/\xf4:EB\xa6\xff\xec\x01"'</t>
+  </si>
+  <si>
+    <t>b"6\x89\x0e80@2\xb4d\xa2`\x17\xad\xa6\xad\xf5~9K\x81\xf2O8^\xc4'\xc7d\x9f/\xbd\xd1"</t>
+  </si>
+  <si>
+    <t>Maripili</t>
+  </si>
+  <si>
+    <t>b'\x82*\xda\xf5\xfe\xec)\xddv\xed\xa3\xe5\n\x8b\xe8a'</t>
+  </si>
+  <si>
+    <t>b'B\xf0\xdd\xc2M\x86o\xe9l\x15\x9e\x00\xd7&amp;\xdcu\xff\xe8Q\xec\xd0\x8f7\xff\x87\xb7?(\xa1\xa5\xc5,'</t>
+  </si>
+  <si>
+    <t>Sanji</t>
+  </si>
+  <si>
+    <t>b']N\xf0\x10M\xe3\xbc\x03\xba{\xc9\nX\xfe\xd9\xc0'</t>
+  </si>
+  <si>
+    <t>b"!\xa4S'\x9el\xc6\x98\x1c\xf7\n(\x82\xfd\xf6\xc4J\xe4P/AU%x\xa5\xea\x19\x02^V\t\xc3"</t>
+  </si>
+  <si>
+    <t>Usopp</t>
+  </si>
+  <si>
+    <t>b'\x12U\xfcc&amp;\x85\xdbj\x1f(\xb6\xa9T\xb3r\xde'</t>
+  </si>
+  <si>
+    <t>b"\x90\xa2\x99az\x1a\x02\xa7'p\x06!\xf8Q\xcaTG\xd6\x81\xcaU%a5g\x1e\x9a\xb5\xac`a\xc2"</t>
+  </si>
+  <si>
+    <t>Zoro</t>
+  </si>
+  <si>
+    <t>b'?_V&amp;\xbd\x85r\x99\x9b2\xcd\xe85\xb2\x85S'</t>
+  </si>
+  <si>
+    <t>b'T\xcd"{/fv\xa21\x16\xb8\x19e\x94wI\xedB(\xac\xc4C^\xf0\xc1Uv\x95P\xbcme'</t>
+  </si>
+  <si>
+    <t>Shanks</t>
+  </si>
+  <si>
+    <t>b'&lt;\xce\x99\x15Y\xf8\x95\x91\x1a\x1c.\xa3\xae\xc98Y'</t>
+  </si>
+  <si>
+    <t>b'S\xf8uY\x8d\xcb\x80N\xc6\x14\x8f\x12\xf3\xba\ne\x15\xd7\xd6C\xfe|\xa7\xa0\x03\xfe\xd8H\xd0?\x08\x12'</t>
+  </si>
+  <si>
+    <t>Arlong</t>
+  </si>
+  <si>
+    <t>b':\x9fi\x93mG$\x88\xf9\xf8?c\x14\xe3\xbf['</t>
+  </si>
+  <si>
+    <t>b'\xca\x9a\xc7\x92\x18\xd3;\xf9\x84~\x9e\x1e\xee\xfc\xc5$\xb4Gs\xba@\xcf\x98\xfb\x07\xa8\xe3\xf3!\xafD\xa3'</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +139,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,215 +463,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nickname</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Contraseña</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Salt</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gorro de paja 89</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>b'\x03f\xf6\x7f\xc8\xd9=`%\x00\xa3\xaa\xd5\x08\x91\x1f'</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D1199B190&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nami</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bell Mere 519</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>b'\xb5\x93\x93"\xb5w\xc4$\xaa\x91@\x88}\xea\x98\xde'</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D6E2B7B90&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Maripili</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Adoro a mis nietos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>b'*\xdf\xb1}\xb9\xabW*\xf8\xb3\xd4!g\x1b\xa6\x8b'</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D7FEABB90&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Creme Brulee 1998</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>b'&amp;\xc1\x0b\xf1M\x10\xcc\xbbjvE*,\x80s\xa1'</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D11B20610&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Usopp</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vienen los piratas</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>b'\xb3\xd0b\xbf \xb2 rK\x17\x17\x97\xe6\xec\x93\xa8'</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D11BCFD90&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>El mejor Espadachin 125</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>b' .\xe0#{u/\xf1\xd6z\x9c(\x16\xbc\xb3\xf4'</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D11BD65D0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Shanks</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Grand Line 1956</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>b'C\n\xa8\x0cU\xca,w/\xc5\xaf\x0fbN\xc7\xd6'</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D11BE8890&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Arlong</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gyojin Park 556</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>b'\x96c\xf4\xb1WT\xd9a\xf1\x97qBE0\xa6o'</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>&lt;cryptography.hazmat.primitives.kdf.pbkdf2.PBKDF2HMAC object at 0x0000023D117598D0&gt;</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -1,130 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F163CB-E46F-4F77-B713-283C0B5D10A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Luffy</t>
-  </si>
-  <si>
-    <t>b'y\x94\xc4P\xedR\xfe\xf8\xcc\x85\xa0\xf0\xe8\x84\x05\xec'</t>
-  </si>
-  <si>
-    <t>b'\xfa\xfbmI\xa6\x08\xbb\x17x\x82\xe4\xf1\x9e\xcf\xb9\xa3)\xa5h4Pup{\xef&lt;#}\x19SW\xd2'</t>
-  </si>
-  <si>
-    <t>Nami</t>
-  </si>
-  <si>
-    <t>b'\x83\xb7|\x8e\x85\xa7/\xf4:EB\xa6\xff\xec\x01"'</t>
-  </si>
-  <si>
-    <t>b"6\x89\x0e80@2\xb4d\xa2`\x17\xad\xa6\xad\xf5~9K\x81\xf2O8^\xc4'\xc7d\x9f/\xbd\xd1"</t>
-  </si>
-  <si>
-    <t>Maripili</t>
-  </si>
-  <si>
-    <t>b'\x82*\xda\xf5\xfe\xec)\xddv\xed\xa3\xe5\n\x8b\xe8a'</t>
-  </si>
-  <si>
-    <t>b'B\xf0\xdd\xc2M\x86o\xe9l\x15\x9e\x00\xd7&amp;\xdcu\xff\xe8Q\xec\xd0\x8f7\xff\x87\xb7?(\xa1\xa5\xc5,'</t>
-  </si>
-  <si>
-    <t>Sanji</t>
-  </si>
-  <si>
-    <t>b']N\xf0\x10M\xe3\xbc\x03\xba{\xc9\nX\xfe\xd9\xc0'</t>
-  </si>
-  <si>
-    <t>b"!\xa4S'\x9el\xc6\x98\x1c\xf7\n(\x82\xfd\xf6\xc4J\xe4P/AU%x\xa5\xea\x19\x02^V\t\xc3"</t>
-  </si>
-  <si>
-    <t>Usopp</t>
-  </si>
-  <si>
-    <t>b'\x12U\xfcc&amp;\x85\xdbj\x1f(\xb6\xa9T\xb3r\xde'</t>
-  </si>
-  <si>
-    <t>b"\x90\xa2\x99az\x1a\x02\xa7'p\x06!\xf8Q\xcaTG\xd6\x81\xcaU%a5g\x1e\x9a\xb5\xac`a\xc2"</t>
-  </si>
-  <si>
-    <t>Zoro</t>
-  </si>
-  <si>
-    <t>b'?_V&amp;\xbd\x85r\x99\x9b2\xcd\xe85\xb2\x85S'</t>
-  </si>
-  <si>
-    <t>b'T\xcd"{/fv\xa21\x16\xb8\x19e\x94wI\xedB(\xac\xc4C^\xf0\xc1Uv\x95P\xbcme'</t>
-  </si>
-  <si>
-    <t>Shanks</t>
-  </si>
-  <si>
-    <t>b'&lt;\xce\x99\x15Y\xf8\x95\x91\x1a\x1c.\xa3\xae\xc98Y'</t>
-  </si>
-  <si>
-    <t>b'S\xf8uY\x8d\xcb\x80N\xc6\x14\x8f\x12\xf3\xba\ne\x15\xd7\xd6C\xfe|\xa7\xa0\x03\xfe\xd8H\xd0?\x08\x12'</t>
-  </si>
-  <si>
-    <t>Arlong</t>
-  </si>
-  <si>
-    <t>b':\x9fi\x93mG$\x88\xf9\xf8?c\x14\xe3\xbf['</t>
-  </si>
-  <si>
-    <t>b'\xca\x9a\xc7\x92\x18\xd3;\xf9\x84~\x9e\x1e\xee\xfc\xc5$\xb4Gs\xba@\xcf\x98\xfb\x07\xa8\xe3\xf3!\xafD\xa3'</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,116 +420,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nickname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Salt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Key_public</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>b'y\x94\xc4P\xedR\xfe\xf8\xcc\x85\xa0\xf0\xe8\x84\x05\xec'</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b'\xfa\xfbmI\xa6\x08\xbb\x17x\x82\xe4\xf1\x9e\xcf\xb9\xa3)\xa5h4Pup{\xef&lt;#}\x19SW\xd2'</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA1PDX3qG0D3YgH/tonO34\nIF0+YkJ2kFubm/iRdUMnZKbUtSibHQ7e1XDwwf4gmSaSTFfW0WG9FYfZAZh67y1+\ngdjBIr3Yiig00Ltt4voAsHX0vpxsbVDf1GBoODn3TdqiBv8RsiK/tjubJ9Xnb89T\nUh49HxjntrJYQEQ1uR0QJHOAksg3phDqWsQ6DruTBlXo9XJ6uy2hjWzdGz5rtlL9\nFR09oPK9fJoIr8oe6SGV/H5vbxYETUvYwNnjgNolufRhW5rnTTDY59UqLJMBOKcs\nudPQJ21DjWmGaTs5C/+NcRzsdRGMoyzmUODf7el3Cjc3YjHbi53ahWwPqDek2FQS\ndQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b'\x83\xb7|\x8e\x85\xa7/\xf4:EB\xa6\xff\xec\x01"'</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b"6\x89\x0e80@2\xb4d\xa2`\x17\xad\xa6\xad\xf5~9K\x81\xf2O8^\xc4'\xc7d\x9f/\xbd\xd1"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEArjhkPOac0M2ZO4xLVofZ\n1Illv3wt4Kd6aws5DlDBSDZU3BiNcvf7JVWMemtRv3k9mjF/yf2XwOXXCzsNTbM8\nO80qj5yCXh8f89a1BGQe0GnLnF8p/FMwtIcODUyaffIWF6EGimrRR/8Ae+fcfXJX\nDy7k9Z4kyqOKNiafKr/Monh52nGaGnV9GgSZ4xT1anKl7LK168A9gM2pu0G0IJDo\nhPVotQH7Ou1hOxFYZf18RRPXTtJeamA0Jq60+dbLC1zoB7hYzW7hIZtUZMUcDF8t\nK/cBk66+0/O6055lJUaC2XoIvkuZI6KV7DFi6YoTsry0OvL8fedN19VDZik6xQWe\nwQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maripili</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>b'\x82*\xda\xf5\xfe\xec)\xddv\xed\xa3\xe5\n\x8b\xe8a'</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>b'B\xf0\xdd\xc2M\x86o\xe9l\x15\x9e\x00\xd7&amp;\xdcu\xff\xe8Q\xec\xd0\x8f7\xff\x87\xb7?(\xa1\xa5\xc5,'</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAvTcG0qT/7NYAYFKD6Cuf\nBDunxzeJPSOeJ7baCrcD6cpRTCz47H5bpdoOvk6qtV+/zQzthp6YnBRVcCnjtc8j\nOKL4LM5hPez8RcXx7FUrXoft2jCo7peDpPvx/Y7OPw48gZdo2LZC8+q3BhK6JGQs\nMbdTiYAWu+VQ/bdsvoW087EAyQH4WZz0AvsT8+6FnqdER6rku03S4OmSnPp8qS/R\nbVg5hlBDJ36O/t066vq6Bksh4q3G3CVZjSHe/yHC4YQNfhGkKhYSzQDPiy/5tD3U\nv/zoalG6APB2GKkMrp6CaBFTpAlGeBAWJkQLUbqepgoFasJWjfavrnu0V0sAkD6x\nAQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>b']N\xf0\x10M\xe3\xbc\x03\xba{\xc9\nX\xfe\xd9\xc0'</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b"!\xa4S'\x9el\xc6\x98\x1c\xf7\n(\x82\xfd\xf6\xc4J\xe4P/AU%x\xa5\xea\x19\x02^V\t\xc3"</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAriW906XiOMpJqQNvh8KB\nwRQdqLlGGU/i3adEhc5LVZxCNUVZXWqmCkiQNFJr7Hz2CSyYXmcHCfmJiqqOMufD\n+byPQIkcVWi3W1OT7ILJgXdZX0WVInO/UIOmUaHX6JzJTY35tAMmmlVMwmCPPMcQ\n2RA4TUYUgLP1L6d3nCfzDMLf/sowt6aiDz3Rplmj13+4pSKMpeavSHDEs0yK9Wv/\ne7xWd7l/r83N+xcp8zYuKD/TXx4cl9Es3qCkDo5xDj/VMKi8/U4eolCh/+Q1Mlno\niwoEjM/+EDpcnNTQ9W62tnMFX/go3T1J3M0PYTPC2uE+gHMPodB6OZF3sxFc31bR\n2wIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Usopp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>b'\x12U\xfcc&amp;\x85\xdbj\x1f(\xb6\xa9T\xb3r\xde'</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>b"\x90\xa2\x99az\x1a\x02\xa7'p\x06!\xf8Q\xcaTG\xd6\x81\xcaU%a5g\x1e\x9a\xb5\xac`a\xc2"</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA6pmXWGCzxiZiJDxQRJ6Y\npGRPuX5yaaBHbD7Mq9a+bhl7gk0eCv9qBDY2cEzXFy5KICTFQbBmc2LvTdZ8iMvy\nS8m2rqj1XS5+z0k779jLdHYPyK2LlalqROD+xA2HNS0CExNyjs+MB/leQOc3fUjN\ntfEs3Vvkg5Iozw3+HXu8sMI7xoM4YIL34fLbAlGIGXKzRwDXaM9ceyh3P58PkwZu\nc1I9jN74h4UaAykkCdpGN5OQM/+a1tzxjRGwG34QlHtby4POiaNWEC81BiOioomk\nBT9js8Id6y5RQsWDB3SPB/a/wkYZtRWWxenGwhipg0GgDu2iEmJ7u+8Ta3u5POYu\nUQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>b'?_V&amp;\xbd\x85r\x99\x9b2\xcd\xe85\xb2\x85S'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>b'T\xcd"{/fv\xa21\x16\xb8\x19e\x94wI\xedB(\xac\xc4C^\xf0\xc1Uv\x95P\xbcme'</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAreXpWCABseg3/lErhaxM\nBwibM72zAk47QK44hFZnGQtZxcmimJ0iulm9qv9wivlN/4RgZcwC03BRwSX3ly1z\noZGsVhU8mXyLNdWkKkSB+GKStC/ixMo8sQIDguJAtv8JjJZGPtf/TkpOpzK2GINq\nz9LHbIKVajSmJAivMzGaUqwl3ITWhZG4mo2mkc2aHKVAVh+uYHic5P42uoCsezCg\n5z/9HLLyEhVzQLHfLT1q3Jd+YITQ48DFczB/DgmtXsyodCnGJdQQCLNVlOVXqJv6\nNwgzLUrq+AEft8AfojBZ7IsUMcUkPM3xhmeX4tUsHd/j+E0wDQdXmwTzW09MCrXt\nrQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shanks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>b'&lt;\xce\x99\x15Y\xf8\x95\x91\x1a\x1c.\xa3\xae\xc98Y'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>b'S\xf8uY\x8d\xcb\x80N\xc6\x14\x8f\x12\xf3\xba\ne\x15\xd7\xd6C\xfe|\xa7\xa0\x03\xfe\xd8H\xd0?\x08\x12'</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAlsMssX7ut3cAzVqiF1Wh\nt7N/jQ25PpcygW+oii/jVf3w6d5VdFigqh3yxxOvGuHv+E8zaw1j4cuUI4Qu9TTQ\n5xdy3fJISRy88UP7Zn8fISPrtz7+q/ySKnT5V2O5C+MyBL1I8/x46no2ocf/NmQO\n10SO1zM1Gj2leM3CFJZMqXlD+RgPmoWbj1a7KjscTRDncM2daCm/aSTVq7TVgc3F\npruIEFd2PWNnRZFJXxQvH2R3RIrDCAAeJt8rA9z5tvYTSBId8Ex4SEa3b2xnFngO\noJRThFy2U32LsyZtD8diG+0xfisxOmGYmRQUHbfEy899X8Py07pJqH2XZgz2omTx\nXQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arlong</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b':\x9fi\x93mG$\x88\xf9\xf8?c\x14\xe3\xbf['</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>b'\xca\x9a\xc7\x92\x18\xd3;\xf9\x84~\x9e\x1e\xee\xfc\xc5$\xb4Gs\xba@\xcf\x98\xfb\x07\xa8\xe3\xf3!\xafD\xa3'</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAg7QMUmH08Xdty+/7omS7\njp4beH9XiHqbUI7QfG3u5bc3quWAsQEkDyJa2rKS/ycOkFrcd2CvmvomXpHZsm2t\nmR0aYI+2YdR1gCpLIIvQJDuf9ad/Q7bhSI4ps8YSKyipHmJfqCZhlIUx6NXc9HWG\nZj4lnCtmbTrvwj9royhg2ag1/YZw2LKnyXqyxh2UMhXI/52rSv6HoUnP7ob1EQA4\n4y4olSDvbbWGDbs/HjWEp1V0na21QhzwYiE3lz5Y85hW3IkcQpNyKpHJakwaJY/a\neHHt8ngQ+FzuBPKj+hCxOSCYvGZwdaGWPeNikYTelkn3ReQsbNvLHwtJwYpKR01U\nwwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA1PDX3qG0D3YgH/tonO34\nIF0+YkJ2kFubm/iRdUMnZKbUtSibHQ7e1XDwwf4gmSaSTFfW0WG9FYfZAZh67y1+\ngdjBIr3Yiig00Ltt4voAsHX0vpxsbVDf1GBoODn3TdqiBv8RsiK/tjubJ9Xnb89T\nUh49HxjntrJYQEQ1uR0QJHOAksg3phDqWsQ6DruTBlXo9XJ6uy2hjWzdGz5rtlL9\nFR09oPK9fJoIr8oe6SGV/H5vbxYETUvYwNnjgNolufRhW5rnTTDY59UqLJMBOKcs\nudPQJ21DjWmGaTs5C/+NcRzsdRGMoyzmUODf7el3Cjc3YjHbi53ahWwPqDek2FQS\ndQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyoyYUNnHlwFT5mT6bpZe\nKbDtalgVOrp7YnJnRetXX8LmN/TpWQ54uEoK7qB6xFqFKrETTUDtoOoVbUer1U9/\nzeBFI+DG34LwL/b1LE8ht9FFy90MLLAO1vjnW2NCYZ9FT+7wpEB3Y25y694lcOAX\ndzPyeeEwAlAyLJtsvBcQQKfraop34Tmyf7VcySJRuxtmzQ1OWcb+HNqJxoXvceKZ\nIoHklgbUdEgVzFXEu1q7qr/P0wy29NlZGljtIPM4uhnd1T2O5O3e3w7Arem2Ie0Z\nbpVZcjvK+I8wAkANn1PF4Jd3OMI2Y1UQ+FFK6nPwtg/hapgtmDeIgJKmTc1RImF3\nMQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEArjhkPOac0M2ZO4xLVofZ\n1Illv3wt4Kd6aws5DlDBSDZU3BiNcvf7JVWMemtRv3k9mjF/yf2XwOXXCzsNTbM8\nO80qj5yCXh8f89a1BGQe0GnLnF8p/FMwtIcODUyaffIWF6EGimrRR/8Ae+fcfXJX\nDy7k9Z4kyqOKNiafKr/Monh52nGaGnV9GgSZ4xT1anKl7LK168A9gM2pu0G0IJDo\nhPVotQH7Ou1hOxFYZf18RRPXTtJeamA0Jq60+dbLC1zoB7hYzW7hIZtUZMUcDF8t\nK/cBk66+0/O6055lJUaC2XoIvkuZI6KV7DFi6YoTsry0OvL8fedN19VDZik6xQWe\nwQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAlUW3DMG89rUZHd/Be3ge\nsfmUreJBoUfFwX+fh0yO9rI0kohVvlkE1mRxK1yjzhWFn7iYJp/empNuhYwq1e6f\n/ecmvXCokDRbkePvj39fyYMv+4YpSNDTFemAS60+bL4/vCVzjo6UuCzyHQwbAodr\nPLgD9yG1qoiBPZdRMlzZ63WNZAwfaHwvB0f+1TPQ4V6GXJbpiUbsbPOhXF06IOCT\nr8xQqz/mMW8iCm227hKvmJwGXC0oCgPeDsNF3Ohc7p/lKwjxWpO363nyI7z4Z9QI\np7nZRRZcz6N9h8ulDPf9OgnZ7OCane/ddF+25hzO0R7Z6sWUAQFKLT4TtuvQLBLJ\nvwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAvTcG0qT/7NYAYFKD6Cuf\nBDunxzeJPSOeJ7baCrcD6cpRTCz47H5bpdoOvk6qtV+/zQzthp6YnBRVcCnjtc8j\nOKL4LM5hPez8RcXx7FUrXoft2jCo7peDpPvx/Y7OPw48gZdo2LZC8+q3BhK6JGQs\nMbdTiYAWu+VQ/bdsvoW087EAyQH4WZz0AvsT8+6FnqdER6rku03S4OmSnPp8qS/R\nbVg5hlBDJ36O/t066vq6Bksh4q3G3CVZjSHe/yHC4YQNfhGkKhYSzQDPiy/5tD3U\nv/zoalG6APB2GKkMrp6CaBFTpAlGeBAWJkQLUbqepgoFasJWjfavrnu0V0sAkD6x\nAQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAz+jkAbxEeU0aaFzPUX9G\nKC8E/YmBDFAkLVroF9zGf1MbFBYe+U0kDQgtxHjOokAufGW6bWX7iDyU7pcUe+de\nRJe6PSs+WNcMt7bT+TnFrBOEusPSV3Z9a/ijX4j7HDCK235D2Xn1mo6dYpxRpHEg\nGKpilNDX8owuJZrGQla4X0a0LEvmHy82yQqg1OcMu9JDj5ZdULGC1yW3SQVdqMmW\nXpe4cfD/YyIXEw6otdaQanB9vIMwEIym08Bt2UtFhMy+hLtg+ui3VM2Foot62QPx\nRMJvi+KzNXzWhl16OvVsoXjLysH94Lg6eZD/OuCfo+C4gljrCe7k0o5V4297RwfY\nJwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAriW906XiOMpJqQNvh8KB\nwRQdqLlGGU/i3adEhc5LVZxCNUVZXWqmCkiQNFJr7Hz2CSyYXmcHCfmJiqqOMufD\n+byPQIkcVWi3W1OT7ILJgXdZX0WVInO/UIOmUaHX6JzJTY35tAMmmlVMwmCPPMcQ\n2RA4TUYUgLP1L6d3nCfzDMLf/sowt6aiDz3Rplmj13+4pSKMpeavSHDEs0yK9Wv/\ne7xWd7l/r83N+xcp8zYuKD/TXx4cl9Es3qCkDo5xDj/VMKi8/U4eolCh/+Q1Mlno\niwoEjM/+EDpcnNTQ9W62tnMFX/go3T1J3M0PYTPC2uE+gHMPodB6OZF3sxFc31bR\n2wIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAhR2WP83Q6uDSSeaF8GvW\nnRzuzXce0B5tUmhlWpcGoQ0LFPi1kOnYKUQLWkPPhAOKqI0Q7sG5dGgGUvNVIEPf\nLIHFthY5EZoC1O7s9WX74gKWozo9gmaWuGaqS9Jk2+wO3KTPp1xdmVCsZYiWCb2d\nq3tCUqi5pbBKO3RwBonGoEL6vYbW8KE0TgokFYJDdhD69T2DyG9LT8kGhS10VTiI\nzXLXKtsoJRikCzfqSL8LXp8XulCPDyi0uGxCQNPUY170O17foW61/fyac3JlEAXf\nDDydJQZpJshky9hb/EfQxRx4BhDSbYVvHKloEf6NNTl6RKAhjs3+oow35A5SVbki\n/QIDAQAB\n-----END PUBLIC KEY-----\n'</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA6pmXWGCzxiZiJDxQRJ6Y\npGRPuX5yaaBHbD7Mq9a+bhl7gk0eCv9qBDY2cEzXFy5KICTFQbBmc2LvTdZ8iMvy\nS8m2rqj1XS5+z0k779jLdHYPyK2LlalqROD+xA2HNS0CExNyjs+MB/leQOc3fUjN\ntfEs3Vvkg5Iozw3+HXu8sMI7xoM4YIL34fLbAlGIGXKzRwDXaM9ceyh3P58PkwZu\nc1I9jN74h4UaAykkCdpGN5OQM/+a1tzxjRGwG34QlHtby4POiaNWEC81BiOioomk\nBT9js8Id6y5RQsWDB3SPB/a/wkYZtRWWxenGwhipg0GgDu2iEmJ7u+8Ta3u5POYu\nUQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAoLxrBD+gRvDI8Fs+kjHY\nfJPVB9O5Dm0NCy2XdumIk1PkmG2EzXqi3pmZLiF84D08WEvcZkbOQGdlbdqHDI1j\nzgI3fDTLvi5rlUYdn1s87a/7n7A6TIxLTTni23McAORYbRNAUpLNRojTNrnMelsY\nTtXgm3DWSuRG2w2+1IhKiQaA8jR19meFOYlL6UF9omPkOHmYkApt6e+aksjigfIq\nyJ8FE7BjnrZ0KFNTpplhf035HsVJV+8sih0rzQW30iY2H9NStinRAg2DaXNpL+7D\nUZL97JQOYdzNmfIRhhWvhmjDFcX7vqaKa5/0Z8ghj+oZHi9Ljm9kAfUFqy0jFPUB\niwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAreXpWCABseg3/lErhaxM\nBwibM72zAk47QK44hFZnGQtZxcmimJ0iulm9qv9wivlN/4RgZcwC03BRwSX3ly1z\noZGsVhU8mXyLNdWkKkSB+GKStC/ixMo8sQIDguJAtv8JjJZGPtf/TkpOpzK2GINq\nz9LHbIKVajSmJAivMzGaUqwl3ITWhZG4mo2mkc2aHKVAVh+uYHic5P42uoCsezCg\n5z/9HLLyEhVzQLHfLT1q3Jd+YITQ48DFczB/DgmtXsyodCnGJdQQCLNVlOVXqJv6\nNwgzLUrq+AEft8AfojBZ7IsUMcUkPM3xhmeX4tUsHd/j+E0wDQdXmwTzW09MCrXt\nrQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAsRZwLQqUvz0/8xWVPuSj\nQfJUEx7F4oQ9RkIETNvDzSofRsU7vMPzJZM8lXcuAaGApRz6aAqe+P4SbRswG51j\nhOkfpFn0Pa3mcqQb4guA/GJ+OU1QiNSbbAzKZ2//3jHnHOcWCQZIeZwNAqIKcwqz\nur+wr3+qLuAT3VLBLFZfbIZqOGusDRjmIH0AM+Jd2lt9pATvHEjYukY5+Ksby6Rm\nqakGHFQ12TScZxnmSPLQNFXCR9eK0U7sLhSasUudSFvgj25l3jCc6SK5SDnaz3UA\n/UmaJq/deiqAOU+J7McD2qu27sOsjdnngqwfpE53HpbZ6V4i2wiHvsnS/pQBVVow\nDwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAlsMssX7ut3cAzVqiF1Wh\nt7N/jQ25PpcygW+oii/jVf3w6d5VdFigqh3yxxOvGuHv+E8zaw1j4cuUI4Qu9TTQ\n5xdy3fJISRy88UP7Zn8fISPrtz7+q/ySKnT5V2O5C+MyBL1I8/x46no2ocf/NmQO\n10SO1zM1Gj2leM3CFJZMqXlD+RgPmoWbj1a7KjscTRDncM2daCm/aSTVq7TVgc3F\npruIEFd2PWNnRZFJXxQvH2R3RIrDCAAeJt8rA9z5tvYTSBId8Ex4SEa3b2xnFngO\noJRThFy2U32LsyZtD8diG+0xfisxOmGYmRQUHbfEy899X8Py07pJqH2XZgz2omTx\nXQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAn0LfUPRGKkDomVnhtfgk\nKnWF5QQlDqMBFNuTFOfn2Ffy6dhSZsAlru/I52YE3lee5uXbm9ap64ndtQrvqKO8\nlkLobkkEKI/+OqCdRRPvUouMtPINyVGOujLvJb31AG87qW1Lb+hmTOxBES9dI9wB\nAEZluZsUKfL5Yt7HqUSrH50c8XRgobdzBqazw1T82AC9jFPd4Uu1pxLR3VThVMEc\nz/6yJhTB/m+EEnYEIsTrmXTMS+W5mmB/JRxv65+mKM6zT7QjTyRq3OtsP20Vkzw9\nHXmllzbaMbqK7pUlgRF0JkWdyp6XIkM8SaHcNcCrNI8VWSKOcJFwNZ3tGwLH7UMD\nRQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAg7QMUmH08Xdty+/7omS7\njp4beH9XiHqbUI7QfG3u5bc3quWAsQEkDyJa2rKS/ycOkFrcd2CvmvomXpHZsm2t\nmR0aYI+2YdR1gCpLIIvQJDuf9ad/Q7bhSI4ps8YSKyipHmJfqCZhlIUx6NXc9HWG\nZj4lnCtmbTrvwj9royhg2ag1/YZw2LKnyXqyxh2UMhXI/52rSv6HoUnP7ob1EQA4\n4y4olSDvbbWGDbs/HjWEp1V0na21QhzwYiE3lz5Y85hW3IkcQpNyKpHJakwaJY/a\neHHt8ngQ+FzuBPKj+hCxOSCYvGZwdaGWPeNikYTelkn3ReQsbNvLHwtJwYpKR01U\nwwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAnApXEIsh3H4fcHGbtBf4\nB8lc6VF1Jk8K1S2tIZ+WGKfXEWpKiseHaMpj7d+h/3ETJR30dYQ3o3ti+wOCScJw\npVmYCi3+VbikJHZU8fwK9w35BsGTgoSFBBCb38I9hhAfOUOcekn2X7IegILaS4d7\n1DLFh6TTIkx7zAO/CVIQWH94fJB+tA0UCF7D2yT++/I69u9A6j9eP1jwpqedsFkw\ng7heiXl64x3aYKnt4HIuAhwQPKaCMA/k84jTGrhv4BqoiaoAooI6TsuQtwQmHMgn\nMzZPsR9JIuYX92wfGZ/Xb2rSP8cUU4TKyS+z8MK7wgNGGdYtYf/d7kHIHD/VwoJ6\nrwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
         </is>
       </c>
     </row>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -1,37 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CFF723-3718-4DBB-99E2-A4E282B497FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Key_public</t>
+  </si>
+  <si>
+    <t>Luffy</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyoyYUNnHlwFT5mT6bpZe\nKbDtalgVOrp7YnJnRetXX8LmN/TpWQ54uEoK7qB6xFqFKrETTUDtoOoVbUer1U9/\nzeBFI+DG34LwL/b1LE8ht9FFy90MLLAO1vjnW2NCYZ9FT+7wpEB3Y25y694lcOAX\ndzPyeeEwAlAyLJtsvBcQQKfraop34Tmyf7VcySJRuxtmzQ1OWcb+HNqJxoXvceKZ\nIoHklgbUdEgVzFXEu1q7qr/P0wy29NlZGljtIPM4uhnd1T2O5O3e3w7Arem2Ie0Z\nbpVZcjvK+I8wAkANn1PF4Jd3OMI2Y1UQ+FFK6nPwtg/hapgtmDeIgJKmTc1RImF3\nMQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAlUW3DMG89rUZHd/Be3ge\nsfmUreJBoUfFwX+fh0yO9rI0kohVvlkE1mRxK1yjzhWFn7iYJp/empNuhYwq1e6f\n/ecmvXCokDRbkePvj39fyYMv+4YpSNDTFemAS60+bL4/vCVzjo6UuCzyHQwbAodr\nPLgD9yG1qoiBPZdRMlzZ63WNZAwfaHwvB0f+1TPQ4V6GXJbpiUbsbPOhXF06IOCT\nr8xQqz/mMW8iCm227hKvmJwGXC0oCgPeDsNF3Ohc7p/lKwjxWpO363nyI7z4Z9QI\np7nZRRZcz6N9h8ulDPf9OgnZ7OCane/ddF+25hzO0R7Z6sWUAQFKLT4TtuvQLBLJ\nvwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+  </si>
+  <si>
+    <t>Maripili</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAz+jkAbxEeU0aaFzPUX9G\nKC8E/YmBDFAkLVroF9zGf1MbFBYe+U0kDQgtxHjOokAufGW6bWX7iDyU7pcUe+de\nRJe6PSs+WNcMt7bT+TnFrBOEusPSV3Z9a/ijX4j7HDCK235D2Xn1mo6dYpxRpHEg\nGKpilNDX8owuJZrGQla4X0a0LEvmHy82yQqg1OcMu9JDj5ZdULGC1yW3SQVdqMmW\nXpe4cfD/YyIXEw6otdaQanB9vIMwEIym08Bt2UtFhMy+hLtg+ui3VM2Foot62QPx\nRMJvi+KzNXzWhl16OvVsoXjLysH94Lg6eZD/OuCfo+C4gljrCe7k0o5V4297RwfY\nJwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+  </si>
+  <si>
+    <t>Sanji</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAhR2WP83Q6uDSSeaF8GvW\nnRzuzXce0B5tUmhlWpcGoQ0LFPi1kOnYKUQLWkPPhAOKqI0Q7sG5dGgGUvNVIEPf\nLIHFthY5EZoC1O7s9WX74gKWozo9gmaWuGaqS9Jk2+wO3KTPp1xdmVCsZYiWCb2d\nq3tCUqi5pbBKO3RwBonGoEL6vYbW8KE0TgokFYJDdhD69T2DyG9LT8kGhS10VTiI\nzXLXKtsoJRikCzfqSL8LXp8XulCPDyi0uGxCQNPUY170O17foW61/fyac3JlEAXf\nDDydJQZpJshky9hb/EfQxRx4BhDSbYVvHKloEf6NNTl6RKAhjs3+oow35A5SVbki\n/QIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+  </si>
+  <si>
+    <t>Usopp</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAoLxrBD+gRvDI8Fs+kjHY\nfJPVB9O5Dm0NCy2XdumIk1PkmG2EzXqi3pmZLiF84D08WEvcZkbOQGdlbdqHDI1j\nzgI3fDTLvi5rlUYdn1s87a/7n7A6TIxLTTni23McAORYbRNAUpLNRojTNrnMelsY\nTtXgm3DWSuRG2w2+1IhKiQaA8jR19meFOYlL6UF9omPkOHmYkApt6e+aksjigfIq\nyJ8FE7BjnrZ0KFNTpplhf035HsVJV+8sih0rzQW30iY2H9NStinRAg2DaXNpL+7D\nUZL97JQOYdzNmfIRhhWvhmjDFcX7vqaKa5/0Z8ghj+oZHi9Ljm9kAfUFqy0jFPUB\niwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+  </si>
+  <si>
+    <t>Zoro</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAsRZwLQqUvz0/8xWVPuSj\nQfJUEx7F4oQ9RkIETNvDzSofRsU7vMPzJZM8lXcuAaGApRz6aAqe+P4SbRswG51j\nhOkfpFn0Pa3mcqQb4guA/GJ+OU1QiNSbbAzKZ2//3jHnHOcWCQZIeZwNAqIKcwqz\nur+wr3+qLuAT3VLBLFZfbIZqOGusDRjmIH0AM+Jd2lt9pATvHEjYukY5+Ksby6Rm\nqakGHFQ12TScZxnmSPLQNFXCR9eK0U7sLhSasUudSFvgj25l3jCc6SK5SDnaz3UA\n/UmaJq/deiqAOU+J7McD2qu27sOsjdnngqwfpE53HpbZ6V4i2wiHvsnS/pQBVVow\nDwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+  </si>
+  <si>
+    <t>Shanks</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAn0LfUPRGKkDomVnhtfgk\nKnWF5QQlDqMBFNuTFOfn2Ffy6dhSZsAlru/I52YE3lee5uXbm9ap64ndtQrvqKO8\nlkLobkkEKI/+OqCdRRPvUouMtPINyVGOujLvJb31AG87qW1Lb+hmTOxBES9dI9wB\nAEZluZsUKfL5Yt7HqUSrH50c8XRgobdzBqazw1T82AC9jFPd4Uu1pxLR3VThVMEc\nz/6yJhTB/m+EEnYEIsTrmXTMS+W5mmB/JRxv65+mKM6zT7QjTyRq3OtsP20Vkzw9\nHXmllzbaMbqK7pUlgRF0JkWdyp6XIkM8SaHcNcCrNI8VWSKOcJFwNZ3tGwLH7UMD\nRQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+  </si>
+  <si>
+    <t>Arlong</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAnApXEIsh3H4fcHGbtBf4\nB8lc6VF1Jk8K1S2tIZ+WGKfXEWpKiseHaMpj7d+h/3ETJR30dYQ3o3ti+wOCScJw\npVmYCi3+VbikJHZU8fwK9w35BsGTgoSFBBCb38I9hhAfOUOcekn2X7IegILaS4d7\n1DLFh6TTIkx7zAO/CVIQWH94fJB+tA0UCF7D2yT++/I69u9A6j9eP1jwpqedsFkw\ng7heiXl64x3aYKnt4HIuAhwQPKaCMA/k84jTGrhv4BqoiaoAooI6TsuQtwQmHMgn\nMzZPsR9JIuYX92wfGZ/Xb2rSP8cUU4TKyS+z8MK7wgNGGdYtYf/d7kHIHD/VwoJ6\nrwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
+  </si>
+  <si>
+    <t>b'\xb9\x8e\x87\x84\x94\x0ba\xe3\xf6\x8bKG\nM\x0c0'</t>
+  </si>
+  <si>
+    <t>b'7\x9a=v\x95\xc0\x1d\x16\xdf\x9dG\x83\x8b\xfb\xbfs\xe4\x86\x03\xdc\x91\xbc\x11\xc8\x9f~\xfd\xdd\xa3Y\x1c\xb9'</t>
+  </si>
+  <si>
+    <t>b'\xc18\xe6k\r{\x10\xd6\x17R#\xcb\xdd\xa7\xff\xf8'</t>
+  </si>
+  <si>
+    <t>b'\xe4v\x19\x8d\x12\xcd\x0b\xc6J&gt;\x1e;D\xc8\xb6\xa6{\x8d,\xb2\x9cs\x85%(zoF\xf1n\x1fS'</t>
+  </si>
+  <si>
+    <t>b'\x86}\xb5\xe1E:&gt;S\xaf\x99{\xbe\xf1\x01J6'</t>
+  </si>
+  <si>
+    <t>b'xC-p\xc9\x9f@\x15i\\X+\x89\x02\xfe\x12\xff-G\xf4\xf44\xc4\xb5\x9dg\xee&gt;\xe7F\xa5\xc4'</t>
+  </si>
+  <si>
+    <t>b'CD\x9a\xafkL}\xbe\xed\xadJ\xe3\xff\xcfu1'</t>
+  </si>
+  <si>
+    <t>b'\x81\x0e3\xd6I\x12"M\x81Z\xf5,6\xe2\xa6\x81\xe7\x83\xd5\xa1:\x00-\xcc\xf2\'\xf7;\xa3\x17\xc0b'</t>
+  </si>
+  <si>
+    <t>b'\xa5#.&lt;\xa2\xe7+\xe5\xd5\x0buF\xa0M\xc1\xdd'</t>
+  </si>
+  <si>
+    <t>b'\x8bI\xcc\xd5\x0c\xc5\x10!\xdfn\x1ekh\xb1\x82\xdf\xc7\x12\x94\xca\x9fbn{\xc1\x03\x89\xa6s\x8a\x02\xa8'</t>
+  </si>
+  <si>
+    <t>b'M\x8e4\x8f\xf4\x0e\x92\xf1\xc1\xb3\xa1V+\x8b{\xb2'</t>
+  </si>
+  <si>
+    <t>b'\xe2\xfb\xfc3\xadz\xae\x9b\xd9gY\xedj\x89\x0b3`\x14B\xa9\xb3\x0f\xa3\xf43D\x80vG\x90xb'</t>
+  </si>
+  <si>
+    <t>b'\xa0\xba\x03a?\x8d\xc7\xa1&lt;\xba~\x8c\xc0`\xd8\xa0'</t>
+  </si>
+  <si>
+    <t>b'\xf2\xda\xf5\xb7\xceT_\xfd\xf1\x95\xaeS_8R\xb4t\xd6\xe3\xcc+Y\xbeHF\xa8\xf1Q\xda\x936X'</t>
+  </si>
+  <si>
+    <t>b')+k\xb0\x1d\x86\x1c\x90\xc4\x8bA\x8a\xd5\x89\xae!'</t>
+  </si>
+  <si>
+    <t>b'i&amp;Jm\x10\xb5X&lt;I&lt;\x8fo\xeb\xa8)\xeb$\xa1\xc6\xab\xfc\xe0v\xb1\xb9+\xc8\xfd\xec\xf0\x07\xb1'</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +166,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,216 +491,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="110.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nickname</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Salt</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Key</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Key_public</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>b'y\x94\xc4P\xedR\xfe\xf8\xcc\x85\xa0\xf0\xe8\x84\x05\xec'</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>b'\xfa\xfbmI\xa6\x08\xbb\x17x\x82\xe4\xf1\x9e\xcf\xb9\xa3)\xa5h4Pup{\xef&lt;#}\x19SW\xd2'</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyoyYUNnHlwFT5mT6bpZe\nKbDtalgVOrp7YnJnRetXX8LmN/TpWQ54uEoK7qB6xFqFKrETTUDtoOoVbUer1U9/\nzeBFI+DG34LwL/b1LE8ht9FFy90MLLAO1vjnW2NCYZ9FT+7wpEB3Y25y694lcOAX\ndzPyeeEwAlAyLJtsvBcQQKfraop34Tmyf7VcySJRuxtmzQ1OWcb+HNqJxoXvceKZ\nIoHklgbUdEgVzFXEu1q7qr/P0wy29NlZGljtIPM4uhnd1T2O5O3e3w7Arem2Ie0Z\nbpVZcjvK+I8wAkANn1PF4Jd3OMI2Y1UQ+FFK6nPwtg/hapgtmDeIgJKmTc1RImF3\nMQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nami</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>b'\x83\xb7|\x8e\x85\xa7/\xf4:EB\xa6\xff\xec\x01"'</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>b"6\x89\x0e80@2\xb4d\xa2`\x17\xad\xa6\xad\xf5~9K\x81\xf2O8^\xc4'\xc7d\x9f/\xbd\xd1"</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAlUW3DMG89rUZHd/Be3ge\nsfmUreJBoUfFwX+fh0yO9rI0kohVvlkE1mRxK1yjzhWFn7iYJp/empNuhYwq1e6f\n/ecmvXCokDRbkePvj39fyYMv+4YpSNDTFemAS60+bL4/vCVzjo6UuCzyHQwbAodr\nPLgD9yG1qoiBPZdRMlzZ63WNZAwfaHwvB0f+1TPQ4V6GXJbpiUbsbPOhXF06IOCT\nr8xQqz/mMW8iCm227hKvmJwGXC0oCgPeDsNF3Ohc7p/lKwjxWpO363nyI7z4Z9QI\np7nZRRZcz6N9h8ulDPf9OgnZ7OCane/ddF+25hzO0R7Z6sWUAQFKLT4TtuvQLBLJ\nvwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Maripili</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>b'\x82*\xda\xf5\xfe\xec)\xddv\xed\xa3\xe5\n\x8b\xe8a'</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>b'B\xf0\xdd\xc2M\x86o\xe9l\x15\x9e\x00\xd7&amp;\xdcu\xff\xe8Q\xec\xd0\x8f7\xff\x87\xb7?(\xa1\xa5\xc5,'</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAz+jkAbxEeU0aaFzPUX9G\nKC8E/YmBDFAkLVroF9zGf1MbFBYe+U0kDQgtxHjOokAufGW6bWX7iDyU7pcUe+de\nRJe6PSs+WNcMt7bT+TnFrBOEusPSV3Z9a/ijX4j7HDCK235D2Xn1mo6dYpxRpHEg\nGKpilNDX8owuJZrGQla4X0a0LEvmHy82yQqg1OcMu9JDj5ZdULGC1yW3SQVdqMmW\nXpe4cfD/YyIXEw6otdaQanB9vIMwEIym08Bt2UtFhMy+hLtg+ui3VM2Foot62QPx\nRMJvi+KzNXzWhl16OvVsoXjLysH94Lg6eZD/OuCfo+C4gljrCe7k0o5V4297RwfY\nJwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>b']N\xf0\x10M\xe3\xbc\x03\xba{\xc9\nX\xfe\xd9\xc0'</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>b"!\xa4S'\x9el\xc6\x98\x1c\xf7\n(\x82\xfd\xf6\xc4J\xe4P/AU%x\xa5\xea\x19\x02^V\t\xc3"</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAhR2WP83Q6uDSSeaF8GvW\nnRzuzXce0B5tUmhlWpcGoQ0LFPi1kOnYKUQLWkPPhAOKqI0Q7sG5dGgGUvNVIEPf\nLIHFthY5EZoC1O7s9WX74gKWozo9gmaWuGaqS9Jk2+wO3KTPp1xdmVCsZYiWCb2d\nq3tCUqi5pbBKO3RwBonGoEL6vYbW8KE0TgokFYJDdhD69T2DyG9LT8kGhS10VTiI\nzXLXKtsoJRikCzfqSL8LXp8XulCPDyi0uGxCQNPUY170O17foW61/fyac3JlEAXf\nDDydJQZpJshky9hb/EfQxRx4BhDSbYVvHKloEf6NNTl6RKAhjs3+oow35A5SVbki\n/QIDAQAB\n-----END PUBLIC KEY-----\n'</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Usopp</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>b'\x12U\xfcc&amp;\x85\xdbj\x1f(\xb6\xa9T\xb3r\xde'</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>b"\x90\xa2\x99az\x1a\x02\xa7'p\x06!\xf8Q\xcaTG\xd6\x81\xcaU%a5g\x1e\x9a\xb5\xac`a\xc2"</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAoLxrBD+gRvDI8Fs+kjHY\nfJPVB9O5Dm0NCy2XdumIk1PkmG2EzXqi3pmZLiF84D08WEvcZkbOQGdlbdqHDI1j\nzgI3fDTLvi5rlUYdn1s87a/7n7A6TIxLTTni23McAORYbRNAUpLNRojTNrnMelsY\nTtXgm3DWSuRG2w2+1IhKiQaA8jR19meFOYlL6UF9omPkOHmYkApt6e+aksjigfIq\nyJ8FE7BjnrZ0KFNTpplhf035HsVJV+8sih0rzQW30iY2H9NStinRAg2DaXNpL+7D\nUZL97JQOYdzNmfIRhhWvhmjDFcX7vqaKa5/0Z8ghj+oZHi9Ljm9kAfUFqy0jFPUB\niwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>b'?_V&amp;\xbd\x85r\x99\x9b2\xcd\xe85\xb2\x85S'</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>b'T\xcd"{/fv\xa21\x16\xb8\x19e\x94wI\xedB(\xac\xc4C^\xf0\xc1Uv\x95P\xbcme'</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAsRZwLQqUvz0/8xWVPuSj\nQfJUEx7F4oQ9RkIETNvDzSofRsU7vMPzJZM8lXcuAaGApRz6aAqe+P4SbRswG51j\nhOkfpFn0Pa3mcqQb4guA/GJ+OU1QiNSbbAzKZ2//3jHnHOcWCQZIeZwNAqIKcwqz\nur+wr3+qLuAT3VLBLFZfbIZqOGusDRjmIH0AM+Jd2lt9pATvHEjYukY5+Ksby6Rm\nqakGHFQ12TScZxnmSPLQNFXCR9eK0U7sLhSasUudSFvgj25l3jCc6SK5SDnaz3UA\n/UmaJq/deiqAOU+J7McD2qu27sOsjdnngqwfpE53HpbZ6V4i2wiHvsnS/pQBVVow\nDwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Shanks</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>b'&lt;\xce\x99\x15Y\xf8\x95\x91\x1a\x1c.\xa3\xae\xc98Y'</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>b'S\xf8uY\x8d\xcb\x80N\xc6\x14\x8f\x12\xf3\xba\ne\x15\xd7\xd6C\xfe|\xa7\xa0\x03\xfe\xd8H\xd0?\x08\x12'</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAn0LfUPRGKkDomVnhtfgk\nKnWF5QQlDqMBFNuTFOfn2Ffy6dhSZsAlru/I52YE3lee5uXbm9ap64ndtQrvqKO8\nlkLobkkEKI/+OqCdRRPvUouMtPINyVGOujLvJb31AG87qW1Lb+hmTOxBES9dI9wB\nAEZluZsUKfL5Yt7HqUSrH50c8XRgobdzBqazw1T82AC9jFPd4Uu1pxLR3VThVMEc\nz/6yJhTB/m+EEnYEIsTrmXTMS+W5mmB/JRxv65+mKM6zT7QjTyRq3OtsP20Vkzw9\nHXmllzbaMbqK7pUlgRF0JkWdyp6XIkM8SaHcNcCrNI8VWSKOcJFwNZ3tGwLH7UMD\nRQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Arlong</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>b':\x9fi\x93mG$\x88\xf9\xf8?c\x14\xe3\xbf['</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>b'\xca\x9a\xc7\x92\x18\xd3;\xf9\x84~\x9e\x1e\xee\xfc\xc5$\xb4Gs\xba@\xcf\x98\xfb\x07\xa8\xe3\xf3!\xafD\xa3'</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAnApXEIsh3H4fcHGbtBf4\nB8lc6VF1Jk8K1S2tIZ+WGKfXEWpKiseHaMpj7d+h/3ETJR30dYQ3o3ti+wOCScJw\npVmYCi3+VbikJHZU8fwK9w35BsGTgoSFBBCb38I9hhAfOUOcekn2X7IegILaS4d7\n1DLFh6TTIkx7zAO/CVIQWH94fJB+tA0UCF7D2yT++/I69u9A6j9eP1jwpqedsFkw\ng7heiXl64x3aYKnt4HIuAhwQPKaCMA/k84jTGrhv4BqoiaoAooI6TsuQtwQmHMgn\nMzZPsR9JIuYX92wfGZ/Xb2rSP8cUU4TKyS+z8MK7wgNGGdYtYf/d7kHIHD/VwoJ6\nrwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
-        </is>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CFF723-3718-4DBB-99E2-A4E282B497FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86857A41-F4FB-4E47-8A2C-63F5F0F858BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,12 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,16 +491,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="110.88671875" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -630,9 +630,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86857A41-F4FB-4E47-8A2C-63F5F0F858BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843C18F5-0EA5-4304-9D1F-D04A04A22E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1277" yWindow="4032" windowWidth="19534" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843C18F5-0EA5-4304-9D1F-D04A04A22E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C30734-3F51-4D0A-81E7-E089C172A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1277" yWindow="4032" windowWidth="19534" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Nickname</t>
   </si>
@@ -34,100 +34,154 @@
     <t>Key_public</t>
   </si>
   <si>
+    <t>Solicitud</t>
+  </si>
+  <si>
+    <t>Certificado</t>
+  </si>
+  <si>
     <t>Luffy</t>
   </si>
   <si>
+    <t>b'\xb9\x8e\x87\x84\x94\x0ba\xe3\xf6\x8bKG\nM\x0c0'</t>
+  </si>
+  <si>
+    <t>b'7\x9a=v\x95\xc0\x1d\x16\xdf\x9dG\x83\x8b\xfb\xbfs\xe4\x86\x03\xdc\x91\xbc\x11\xc8\x9f~\xfd\xdd\xa3Y\x1c\xb9'</t>
+  </si>
+  <si>
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyoyYUNnHlwFT5mT6bpZe\nKbDtalgVOrp7YnJnRetXX8LmN/TpWQ54uEoK7qB6xFqFKrETTUDtoOoVbUer1U9/\nzeBFI+DG34LwL/b1LE8ht9FFy90MLLAO1vjnW2NCYZ9FT+7wpEB3Y25y694lcOAX\ndzPyeeEwAlAyLJtsvBcQQKfraop34Tmyf7VcySJRuxtmzQ1OWcb+HNqJxoXvceKZ\nIoHklgbUdEgVzFXEu1q7qr/P0wy29NlZGljtIPM4uhnd1T2O5O3e3w7Arem2Ie0Z\nbpVZcjvK+I8wAkANn1PF4Jd3OMI2Y1UQ+FFK6nPwtg/hapgtmDeIgJKmTc1RImF3\nMQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
+    <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIICzzCCAbcCAQAwYzELMAkGA1UEBhMCS1IxFzAVBgNVBAgMDlRob3VzYW5kIFN1\nbm55MQ8wDQYDVQQHDAZMYSBtYXIxGjAYBgNVBAoMEVBpcmF0YXMgYW7Ds25pbW9z\nMQ4wDAYDVQQDDAVMdWZmeTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoCggEB\nAMqMmFDZx5cBU+Zk+m6WXimw7WpYFTq6e2JyZ0XrV1/C5jf06VkOeLhKCu6gesRa\nhSqxE01A7aDqFW1Hq9VPf83gRSPgxt+C8C/29SxPIbfRRcvdDCywDtb451tjQmGf\nRU/u8KRAd2NucuveJXDgF3cz8nnhMAJQMiybbLwXEECn62qKd+E5sn+1XMkiUbsb\nZs0NTlnG/hzaicaF73HimSKB5JYG1HRIFcxVxLtau6q/z9MMtvTZWRpY7SDzOLoZ\n3dU9juTt3t8OwK3ptiHtGW6VWXI7yviPMAJADZ9TxeCXdzjCNmNVEPhRSupz8LYP\n4WqYLZg3iICSpk3NUSJhdzECAwEAAaAnMCUGCSqGSIb3DQEJDjEYMBYwFAYDVR0R\nBA0wC4IJbG9jYWxob3N0MA0GCSqGSIb3DQEBCwUAA4IBAQBafn72QTprPAieddlO\nrTfi9x3XmI+/GRt1LU0y7HylkLtwT5ePsFOsoURL2B6UM1Y5F5abIiv+hE5ufFMr\nVMxpkMUjydXj2qcfMVadHKaahcLi4o4erRIgrTVBViqxr8Iop5fl0CPb2sSOa8xl\n7WCtx0FONVWqnfFmc4NkQCbHfT770u8QZe/HKR985DOlJU9pTgX4gfRQfKgyW4SR\nLks/tFDYv1xDtP3FqCJIdxy1bui0N+vfEy68fMuEgEWWSQ6stJmllGOgcT+qMICk\nQMulNqJQGxfsXuDi4vPgJoveFWWnDLS6kQ4hT0NAXU1MxaxC/34JnkN0xzyBTzRD\nszen\n-----END CERTIFICATE REQUEST-----\n'</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDYzCCAkugAwIBAgIUQm8xF4AHNDQIoG+twTJa18wcV7AwDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzdaFw0yNDExMjcxNTU5MzdaMGMxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczEOMAwGA1UEAwwFTHVmZnkwggEiMA0GCSqGSIb3\nDQEBAQUAA4IBDwAwggEKAoIBAQDKjJhQ2ceXAVPmZPpull4psO1qWBU6unticmdF\n61dfwuY39OlZDni4SgruoHrEWoUqsRNNQO2g6hVtR6vVT3/N4EUj4MbfgvAv9vUs\nTyG30UXL3QwssA7W+OdbY0Jhn0VP7vCkQHdjbnLr3iVw4Bd3M/J54TACUDIsm2y8\nFxBAp+tqinfhObJ/tVzJIlG7G2bNDU5Zxv4c2onGhe9x4pkigeSWBtR0SBXMVcS7\nWruqv8/TDLb02VkaWO0g8zi6Gd3VPY7k7d7fDsCt6bYh7RlulVlyO8r4jzACQA2f\nU8Xgl3c4wjZjVRD4UUrqc/C2D+FqmC2YN4iAkqZNzVEiYXcxAgMBAAGjGDAWMBQG\nA1UdEQQNMAuCCWxvY2FsaG9zdDANBgkqhkiG9w0BAQsFAAOCAQEAOEYmn/o3w+/b\noFxN2DN43fcmDrJqYFJs5wRAMfNd+LuRdBaG7zFLjNmFYnrEyOjLReVXPWzOtX94\n/F7qBk4M/XlATA0kCwS24WMd1+6fEByLWGXOq827aXJDWCPsKhYOtKbvU8q8Kdtv\nZYxBLyU/W768Ad8sZYUmFiVIOZyzZKLmUgLhuEStkCW11Lg1iod9lMg76VdJ+N6u\nKIBLgaMnuGBSQOpc/RrM3O2wttNDplHyajsN/H9RRKIh1yYRhBATGBq1AVeKnw5G\n1VPx4yQc/tKPzh0Aa0cOR68FdGYdSFl7RoXlr+7MZFF8xuqlnAvBTAyo8AMPeGD2\n9JK1FdeL3A==\n-----END CERTIFICATE-----\n'</t>
+  </si>
+  <si>
     <t>Nami</t>
   </si>
   <si>
+    <t>b'\xc18\xe6k\r{\x10\xd6\x17R#\xcb\xdd\xa7\xff\xf8'</t>
+  </si>
+  <si>
+    <t>b'\xe4v\x19\x8d\x12\xcd\x0b\xc6J&gt;\x1e;D\xc8\xb6\xa6{\x8d,\xb2\x9cs\x85%(zoF\xf1n\x1fS'</t>
+  </si>
+  <si>
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAlUW3DMG89rUZHd/Be3ge\nsfmUreJBoUfFwX+fh0yO9rI0kohVvlkE1mRxK1yjzhWFn7iYJp/empNuhYwq1e6f\n/ecmvXCokDRbkePvj39fyYMv+4YpSNDTFemAS60+bL4/vCVzjo6UuCzyHQwbAodr\nPLgD9yG1qoiBPZdRMlzZ63WNZAwfaHwvB0f+1TPQ4V6GXJbpiUbsbPOhXF06IOCT\nr8xQqz/mMW8iCm227hKvmJwGXC0oCgPeDsNF3Ohc7p/lKwjxWpO363nyI7z4Z9QI\np7nZRRZcz6N9h8ulDPf9OgnZ7OCane/ddF+25hzO0R7Z6sWUAQFKLT4TtuvQLBLJ\nvwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
+    <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIICzjCCAbYCAQAwYjELMAkGA1UEBhMCS1IxFzAVBgNVBAgMDlRob3VzYW5kIFN1\nbm55MQ8wDQYDVQQHDAZMYSBtYXIxGjAYBgNVBAoMEVBpcmF0YXMgYW7Ds25pbW9z\nMQ0wCwYDVQQDDAROYW1pMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA\nlUW3DMG89rUZHd/Be3gesfmUreJBoUfFwX+fh0yO9rI0kohVvlkE1mRxK1yjzhWF\nn7iYJp/empNuhYwq1e6f/ecmvXCokDRbkePvj39fyYMv+4YpSNDTFemAS60+bL4/\nvCVzjo6UuCzyHQwbAodrPLgD9yG1qoiBPZdRMlzZ63WNZAwfaHwvB0f+1TPQ4V6G\nXJbpiUbsbPOhXF06IOCTr8xQqz/mMW8iCm227hKvmJwGXC0oCgPeDsNF3Ohc7p/l\nKwjxWpO363nyI7z4Z9QIp7nZRRZcz6N9h8ulDPf9OgnZ7OCane/ddF+25hzO0R7Z\n6sWUAQFKLT4TtuvQLBLJvwIDAQABoCcwJQYJKoZIhvcNAQkOMRgwFjAUBgNVHREE\nDTALgglsb2NhbGhvc3QwDQYJKoZIhvcNAQELBQADggEBAA3okeyEzBVwhgSLGjuE\ndsnIY+mMjwwBQshWKFJyEMdPKBonfI5/Jdq+O3V4VeRvxk++Hnuj4FzXwqfz4Xa9\n9cDgKlGTHykgKeUEmC/36HkyRGXzGs9nt2zzzfYIRHZW23dGOJMmJR9EgYGHYcTX\njU4JplnUcJBb6d8YTs9pJzJq9SldswdWwf6UR4MNDmRd3qIW2lF+nc2aPPNLrUna\n1r5zkxUg4hNzCTJq8UWCJ5PtDRzA4Z+ECq0LjCYBjqRe1aXNh5WR744oPDLQs4Q+\nOUY8zZCzVtWyAhgwW1BbGOMq4QeDp7zzAyWNrWTaIqZn1xUxNpU/wc3N5ErRi8fM\nBPE=\n-----END CERTIFICATE REQUEST-----\n'</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDYjCCAkqgAwIBAgIUOVOoTET3QQD+psCGr5fsB320VT8wDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzhaFw0yNDExMjcxNTU5MzhaMGIxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczENMAsGA1UEAwwETmFtaTCCASIwDQYJKoZIhvcN\nAQEBBQADggEPADCCAQoCggEBAJVFtwzBvPa1GR3fwXt4HrH5lK3iQaFHxcF/n4dM\njvayNJKIVb5ZBNZkcStco84VhZ+4mCaf3pqTboWMKtXun/3nJr1wqJA0W5Hj749/\nX8mDL/uGKUjQ0xXpgEutPmy+P7wlc46OlLgs8h0MGwKHazy4A/chtaqIgT2XUTJc\n2et1jWQMH2h8LwdH/tUz0OFehlyW6YlG7GzzoVxdOiDgk6/MUKs/5jFvIgpttu4S\nr5icBlwtKAoD3g7DRdzoXO6f5SsI8VqTt+t58iO8+GfUCKe52UUWXM+jfYfLpQz3\n/ToJ2ezgmp3v3XRftuYcztEe2erFlAEBSi0+E7br0CwSyb8CAwEAAaMYMBYwFAYD\nVR0RBA0wC4IJbG9jYWxob3N0MA0GCSqGSIb3DQEBCwUAA4IBAQCyk4DJq1WyxIIB\nfGnsPSxmC+5TkgZ3RsjBr2cjzoJXOOYG+gdPiTbZ2Hg0CFDFFsC40wJDe5EUMgmr\nzrrNMfp4XaKCne46UQ0JPmIAmH42V/1QVKa/5xopYglqT4b8qrKtg2e+5mtdcldD\nL4Gbe8TfNZzYz5C4/1ngQaoIR7t7uW1gFZS3MX+YpJmNdUCjVFi3eHMm/zOkPf7t\nGRoSIXNPOwKWlEipeOI8C40mzXC4CDEIHM30NvKx7rKTE37BwkuvfGSdXjgEuw6d\ne8745VGTNXNJL3hMiG0zP0GojDMa81oEd3TcDBtsoAlDwT8Hl9LLO4iqPiHu02mX\nWEMOgKkO\n-----END CERTIFICATE-----\n'</t>
+  </si>
+  <si>
     <t>Maripili</t>
   </si>
   <si>
+    <t>b'\x86}\xb5\xe1E:&gt;S\xaf\x99{\xbe\xf1\x01J6'</t>
+  </si>
+  <si>
+    <t>b'xC-p\xc9\x9f@\x15i\\X+\x89\x02\xfe\x12\xff-G\xf4\xf44\xc4\xb5\x9dg\xee&gt;\xe7F\xa5\xc4'</t>
+  </si>
+  <si>
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAz+jkAbxEeU0aaFzPUX9G\nKC8E/YmBDFAkLVroF9zGf1MbFBYe+U0kDQgtxHjOokAufGW6bWX7iDyU7pcUe+de\nRJe6PSs+WNcMt7bT+TnFrBOEusPSV3Z9a/ijX4j7HDCK235D2Xn1mo6dYpxRpHEg\nGKpilNDX8owuJZrGQla4X0a0LEvmHy82yQqg1OcMu9JDj5ZdULGC1yW3SQVdqMmW\nXpe4cfD/YyIXEw6otdaQanB9vIMwEIym08Bt2UtFhMy+hLtg+ui3VM2Foot62QPx\nRMJvi+KzNXzWhl16OvVsoXjLysH94Lg6eZD/OuCfo+C4gljrCe7k0o5V4297RwfY\nJwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
+    <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIIC0jCCAboCAQAwZjELMAkGA1UEBhMCS1IxFzAVBgNVBAgMDlRob3VzYW5kIFN1\nbm55MQ8wDQYDVQQHDAZMYSBtYXIxGjAYBgNVBAoMEVBpcmF0YXMgYW7Ds25pbW9z\nMREwDwYDVQQDDAhNYXJpcGlsaTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoC\nggEBAM/o5AG8RHlNGmhcz1F/RigvBP2JgQxQJC1a6Bfcxn9TGxQWHvlNJA0ILcR4\nzqJALnxlum1l+4g8lO6XFHvnXkSXuj0rPljXDLe20/k5xawThLrD0ld2fWv4o1+I\n+xwwitt+Q9l59ZqOnWKcUaRxIBiqYpTQ1/KMLiWaxkJWuF9GtCxL5h8vNskKoNTn\nDLvSQ4+WXVCxgtclt0kFXajJll6XuHHw/2MiFxMOqLXWkGpwfbyDMBCMptPAbdlL\nRYTMvoS7YProt1TNhaKLetkD8UTCb4viszV81oZdejr1bKF4y8rB/eC4OnmQ/zrg\nn6PguIJY6wnu5NKOVeNve0cH2CcCAwEAAaAnMCUGCSqGSIb3DQEJDjEYMBYwFAYD\nVR0RBA0wC4IJbG9jYWxob3N0MA0GCSqGSIb3DQEBCwUAA4IBAQB86g0ow6PvVDBS\nHkmHA+jtFHfz1c/bcMv0ue889sSqf6Uljian7yRXEVC95kR/OnZmd39OKEn7Vslj\nuwmCxSr42w0fYNsEhNTM835DD1C3+XtvW4Umq4rNLt0fwM867TGrAbYu87BrOUEy\nAov72sRcv5L1sHqo0pIKQF9LOw1GhtTzCnm/tCmY/vr1bY1WC9H/LXTegE2PU2k3\n33zElr9u85t7qPMymkBAp5Vkn6TAqF6HQUo1a+Syq3t90tI385kfZPVhd6xA/o8P\nQCkR3TiohSRqTIQA6qxl1wRt63XksP+KHIh9nhr9rOcoA4omvWy+EjKHSFIOvXG3\nw7pP3i2m\n-----END CERTIFICATE REQUEST-----\n'</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDZjCCAk6gAwIBAgIUJPZ+KDCbW+1k3bfkYdmomrLPwRMwDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzhaFw0yNDExMjcxNTU5MzhaMGYxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczERMA8GA1UEAwwITWFyaXBpbGkwggEiMA0GCSqG\nSIb3DQEBAQUAA4IBDwAwggEKAoIBAQDP6OQBvER5TRpoXM9Rf0YoLwT9iYEMUCQt\nWugX3MZ/UxsUFh75TSQNCC3EeM6iQC58ZbptZfuIPJTulxR7515El7o9Kz5Y1wy3\nttP5OcWsE4S6w9JXdn1r+KNfiPscMIrbfkPZefWajp1inFGkcSAYqmKU0NfyjC4l\nmsZCVrhfRrQsS+YfLzbJCqDU5wy70kOPll1QsYLXJbdJBV2oyZZel7hx8P9jIhcT\nDqi11pBqcH28gzAQjKbTwG3ZS0WEzL6Eu2D66LdUzYWii3rZA/FEwm+L4rM1fNaG\nXXo69WyheMvKwf3guDp5kP864J+j4LiCWOsJ7uTSjlXjb3tHB9gnAgMBAAGjGDAW\nMBQGA1UdEQQNMAuCCWxvY2FsaG9zdDANBgkqhkiG9w0BAQsFAAOCAQEAcdLpqXs6\nyRBresUOhEEaW/Kw8W1GMqSTafIIPVpr5bHXnPTM5B+9UUqyqIYNIWakElrNwkGs\nl1IyxhHMODXv/LDu7DvQR4QcuGBTltOKZPczlUr6DbhME6pCgcvSowlAdS5G8J/7\nK1//YZ/iKbWGVR4Aid1QvUrg8JksEx2uoO91z8RADupnaufnK/59ZwixGNQYHo7U\nbRZ1mVsz5RMJOSNMQV0isHcR84j+G9OLJYX3ssKrpbShILefVSJNKS6NjS3nFksT\ne0db49lvd8APKglQVG6WbEvVppe/CUKg+rRiCFM0gxZq2mZqrWy/WdVsNcWMX/1c\nOLzynNAQgZvxJw==\n-----END CERTIFICATE-----\n'</t>
+  </si>
+  <si>
     <t>Sanji</t>
   </si>
   <si>
+    <t>b'CD\x9a\xafkL}\xbe\xed\xadJ\xe3\xff\xcfu1'</t>
+  </si>
+  <si>
+    <t>b'\x81\x0e3\xd6I\x12"M\x81Z\xf5,6\xe2\xa6\x81\xe7\x83\xd5\xa1:\x00-\xcc\xf2\'\xf7;\xa3\x17\xc0b'</t>
+  </si>
+  <si>
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAhR2WP83Q6uDSSeaF8GvW\nnRzuzXce0B5tUmhlWpcGoQ0LFPi1kOnYKUQLWkPPhAOKqI0Q7sG5dGgGUvNVIEPf\nLIHFthY5EZoC1O7s9WX74gKWozo9gmaWuGaqS9Jk2+wO3KTPp1xdmVCsZYiWCb2d\nq3tCUqi5pbBKO3RwBonGoEL6vYbW8KE0TgokFYJDdhD69T2DyG9LT8kGhS10VTiI\nzXLXKtsoJRikCzfqSL8LXp8XulCPDyi0uGxCQNPUY170O17foW61/fyac3JlEAXf\nDDydJQZpJshky9hb/EfQxRx4BhDSbYVvHKloEf6NNTl6RKAhjs3+oow35A5SVbki\n/QIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
+    <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIICzzCCAbcCAQAwYzELMAkGA1UEBhMCS1IxFzAVBgNVBAgMDlRob3VzYW5kIFN1\nbm55MQ8wDQYDVQQHDAZMYSBtYXIxGjAYBgNVBAoMEVBpcmF0YXMgYW7Ds25pbW9z\nMQ4wDAYDVQQDDAVTYW5qaTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoCggEB\nAIUdlj/N0Org0knmhfBr1p0c7s13HtAebVJoZVqXBqENCxT4tZDp2ClEC1pDz4QD\niqiNEO7BuXRoBlLzVSBD3yyBxbYWORGaAtTu7PVl++IClqM6PYJmlrhmqkvSZNvs\nDtykz6dcXZlQrGWIlgm9nat7QlKouaWwSjt0cAaJxqBC+r2G1vChNE4KJBWCQ3YQ\n+vU9g8hvS0/JBoUtdFU4iM1y1yrbKCUYpAs36ki/C16fF7pQjw8otLhsQkDT1GNe\n9Dte36Futf38mnNyZRAF3ww8nSUGaSbIZMvYW/xH0MUceAYQ0m2FbxypaBH+jTU5\nekSgIY7N/qKMN+QOUlW5Iv0CAwEAAaAnMCUGCSqGSIb3DQEJDjEYMBYwFAYDVR0R\nBA0wC4IJbG9jYWxob3N0MA0GCSqGSIb3DQEBCwUAA4IBAQAh6Ysb5viZ/emIwAQ5\n5UmUHRNLNFluE+p22xzeM193a0aDDWSS/8wvRKhFFUcboP6I5oNaHHaUET3ucg86\nEOqlGHggWBLlizLfnJb4JG5dD9BcnR9poNcxrQzHEi/HxvFIt688UJQ+ZkZWtvjA\nTD7TFMNTCZARLWVBtvXdpVAVXPBekoZFUvWAY9Or5ukbi6eiNRkRNZXaGHQ3jWzx\nGqEtSzGrU5w62fWOjOGctbNudtWUF7iz9ADIfx8guNeqP9RehY80+D86aR1g7r83\ndUbhMvY1cIjbdpcsQSFpkgba+V1wqyE/GW4JfE6j5/a3fggfuHbj+VCq0clH8R6r\nbTJd\n-----END CERTIFICATE REQUEST-----\n'</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDYzCCAkugAwIBAgIUHPQXilCtCF33PcOMXLv4e2bKbpwwDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzhaFw0yNDExMjcxNTU5MzhaMGMxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczEOMAwGA1UEAwwFU2FuamkwggEiMA0GCSqGSIb3\nDQEBAQUAA4IBDwAwggEKAoIBAQCFHZY/zdDq4NJJ5oXwa9adHO7Ndx7QHm1SaGVa\nlwahDQsU+LWQ6dgpRAtaQ8+EA4qojRDuwbl0aAZS81UgQ98sgcW2FjkRmgLU7uz1\nZfviApajOj2CZpa4ZqpL0mTb7A7cpM+nXF2ZUKxliJYJvZ2re0JSqLmlsEo7dHAG\nicagQvq9htbwoTROCiQVgkN2EPr1PYPIb0tPyQaFLXRVOIjNctcq2yglGKQLN+pI\nvwtenxe6UI8PKLS4bEJA09RjXvQ7Xt+hbrX9/JpzcmUQBd8MPJ0lBmkmyGTL2Fv8\nR9DFHHgGENJthW8cqWgR/o01OXpEoCGOzf6ijDfkDlJVuSL9AgMBAAGjGDAWMBQG\nA1UdEQQNMAuCCWxvY2FsaG9zdDANBgkqhkiG9w0BAQsFAAOCAQEAbUiZDRrT6IzH\nj1L3L92ywp+hoyHPW0ro8yk+xGHJTT77PyILLAFRwh9XQm3WQ3ytUWxRj+WHWIEC\n3hpQifV+P7dj7ABLOHUU/3pcmndwOl5PNx7Q8cnqWwjNwFRj5KHfOODxaz/gISFy\nRJO2nKmht8e8IDO+ejNtqCYByIdWOGve1S7Tq+qdOEoXNuXag1VyZiojZx05Pf2E\npPAdz/wEV6fqV2f74wsuW2jIIjmDRcj9+kQ90x5xoKcnyd1n7KR0le4b4zqzkMDF\nTMzbvMwnrnpK58cARehxNyWADYaL6f2FWMiSPIm4JxwKA4WHQx6ZmwlsyqVyqB70\nAx8La56u2w==\n-----END CERTIFICATE-----\n'</t>
+  </si>
+  <si>
     <t>Usopp</t>
   </si>
   <si>
+    <t>b'\xa5#.&lt;\xa2\xe7+\xe5\xd5\x0buF\xa0M\xc1\xdd'</t>
+  </si>
+  <si>
+    <t>b'\x8bI\xcc\xd5\x0c\xc5\x10!\xdfn\x1ekh\xb1\x82\xdf\xc7\x12\x94\xca\x9fbn{\xc1\x03\x89\xa6s\x8a\x02\xa8'</t>
+  </si>
+  <si>
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAoLxrBD+gRvDI8Fs+kjHY\nfJPVB9O5Dm0NCy2XdumIk1PkmG2EzXqi3pmZLiF84D08WEvcZkbOQGdlbdqHDI1j\nzgI3fDTLvi5rlUYdn1s87a/7n7A6TIxLTTni23McAORYbRNAUpLNRojTNrnMelsY\nTtXgm3DWSuRG2w2+1IhKiQaA8jR19meFOYlL6UF9omPkOHmYkApt6e+aksjigfIq\nyJ8FE7BjnrZ0KFNTpplhf035HsVJV+8sih0rzQW30iY2H9NStinRAg2DaXNpL+7D\nUZL97JQOYdzNmfIRhhWvhmjDFcX7vqaKa5/0Z8ghj+oZHi9Ljm9kAfUFqy0jFPUB\niwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
+    <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIICzzCCAbcCAQAwYzELMAkGA1UEBhMCS1IxFzAVBgNVBAgMDlRob3VzYW5kIFN1\nbm55MQ8wDQYDVQQHDAZMYSBtYXIxGjAYBgNVBAoMEVBpcmF0YXMgYW7Ds25pbW9z\nMQ4wDAYDVQQDDAVVc29wcDCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoCggEB\nAKC8awQ/oEbwyPBbPpIx2HyT1QfTuQ5tDQstl3bpiJNT5JhthM16ot6ZmS4hfOA9\nPFhL3GZGzkBnZW3ahwyNY84CN3w0y74ua5VGHZ9bPO2v+5+wOkyMS0054ttzHADk\nWG0TQFKSzUaI0za5zHpbGE7V4Jtw1krkRtsNvtSISokGgPI0dfZnhTmJS+lBfaJj\n5Dh5mJAKbenvmpLI4oHyKsifBROwY562dChTU6aZYX9N+R7FSVfvLIodK80Ft9Im\nNh/TUrYp0QINg2lzaS/uw1GS/eyUDmHczZnyEYYVr4ZowxXF+76mimuf9GfIIY/q\nGR4vS45vZAH1BastIxT1AYsCAwEAAaAnMCUGCSqGSIb3DQEJDjEYMBYwFAYDVR0R\nBA0wC4IJbG9jYWxob3N0MA0GCSqGSIb3DQEBCwUAA4IBAQATtEEA2qPkQhw8I16D\nrsHwpT1RJXkJ2iwu+YZu1vkUOS9V403uAYdOYVnDOlpM18xLsIP3gmFMMjNkgKqr\n1ZPB7Xr5m4GGeGDmiU5Jp9JL64WdnoVgsxzUk+qluj3q2RrxzUx2QsEQ7BLaVdGh\n1V+H2KEeJ6BvVM9+8SUJA6E/9eCnal/1UF97KPKjTASfskUYhit0KVZtKF1NnkrP\nmHvjKgFAqQ6EjwvbbeNNGNlBVTC+ocB1qLMnpq4et5f8Cl+Pcq9yLR1nRAt2ppYA\nYlMiWusWHU1TS4ArXuik+4+CQOzw9C4BHdKTf+P2ilQEf6S9wpE3pccl7dqIluKs\nWS58\n-----END CERTIFICATE REQUEST-----\n'</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDYzCCAkugAwIBAgIUZkkijPuoCkM3U0+2269Kfmxk6bYwDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzhaFw0yNDExMjcxNTU5MzhaMGMxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczEOMAwGA1UEAwwFVXNvcHAwggEiMA0GCSqGSIb3\nDQEBAQUAA4IBDwAwggEKAoIBAQCgvGsEP6BG8MjwWz6SMdh8k9UH07kObQ0LLZd2\n6YiTU+SYbYTNeqLemZkuIXzgPTxYS9xmRs5AZ2Vt2ocMjWPOAjd8NMu+LmuVRh2f\nWzztr/ufsDpMjEtNOeLbcxwA5FhtE0BSks1GiNM2ucx6WxhO1eCbcNZK5EbbDb7U\niEqJBoDyNHX2Z4U5iUvpQX2iY+Q4eZiQCm3p75qSyOKB8irInwUTsGOetnQoU1Om\nmWF/TfkexUlX7yyKHSvNBbfSJjYf01K2KdECDYNpc2kv7sNRkv3slA5h3M2Z8hGG\nFa+GaMMVxfu+poprn/RnyCGP6hkeL0uOb2QB9QWrLSMU9QGLAgMBAAGjGDAWMBQG\nA1UdEQQNMAuCCWxvY2FsaG9zdDANBgkqhkiG9w0BAQsFAAOCAQEAvJLGxlPBQHtD\nK9dmsGkl8DWDlijuL2QmBFQoVW5JMlJ1GTWMucy7OJTbXEWexf7rjD2c1zkPB2o4\nCGUHoqREO/v7JFiqEycGE1UXbcGsVABs6/ezMAiG1OCqNIH4KUA9QLhuq6wnkC3g\n3vuYpuedOioUXM2M68DMMGzmKVbiOAFlMeVjpGEEJL1KSQbqqSW+beHAQ/IiywRO\nKr8RWiNGLdBf+sW21wF4dXvLB9jVq81lyZUkQiI6kYUb/P/vvjrf0wV2CNO0IU4f\nmIrMT4YDcJZ1qUs8dvujMPsrxzW4Zz3szRbF+k1cvu3zCnOkPkxGgKpsyjOFVsm6\neVg8lwWrzw==\n-----END CERTIFICATE-----\n'</t>
+  </si>
+  <si>
     <t>Zoro</t>
   </si>
   <si>
+    <t>b'M\x8e4\x8f\xf4\x0e\x92\xf1\xc1\xb3\xa1V+\x8b{\xb2'</t>
+  </si>
+  <si>
+    <t>b'\xe2\xfb\xfc3\xadz\xae\x9b\xd9gY\xedj\x89\x0b3`\x14B\xa9\xb3\x0f\xa3\xf43D\x80vG\x90xb'</t>
+  </si>
+  <si>
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAsRZwLQqUvz0/8xWVPuSj\nQfJUEx7F4oQ9RkIETNvDzSofRsU7vMPzJZM8lXcuAaGApRz6aAqe+P4SbRswG51j\nhOkfpFn0Pa3mcqQb4guA/GJ+OU1QiNSbbAzKZ2//3jHnHOcWCQZIeZwNAqIKcwqz\nur+wr3+qLuAT3VLBLFZfbIZqOGusDRjmIH0AM+Jd2lt9pATvHEjYukY5+Ksby6Rm\nqakGHFQ12TScZxnmSPLQNFXCR9eK0U7sLhSasUudSFvgj25l3jCc6SK5SDnaz3UA\n/UmaJq/deiqAOU+J7McD2qu27sOsjdnngqwfpE53HpbZ6V4i2wiHvsnS/pQBVVow\nDwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
+    <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIICzjCCAbYCAQAwYjELMAkGA1UEBhMCS1IxFzAVBgNVBAgMDlRob3VzYW5kIFN1\nbm55MQ8wDQYDVQQHDAZMYSBtYXIxGjAYBgNVBAoMEVBpcmF0YXMgYW7Ds25pbW9z\nMQ0wCwYDVQQDDARab3JvMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA\nsRZwLQqUvz0/8xWVPuSjQfJUEx7F4oQ9RkIETNvDzSofRsU7vMPzJZM8lXcuAaGA\npRz6aAqe+P4SbRswG51jhOkfpFn0Pa3mcqQb4guA/GJ+OU1QiNSbbAzKZ2//3jHn\nHOcWCQZIeZwNAqIKcwqzur+wr3+qLuAT3VLBLFZfbIZqOGusDRjmIH0AM+Jd2lt9\npATvHEjYukY5+Ksby6RmqakGHFQ12TScZxnmSPLQNFXCR9eK0U7sLhSasUudSFvg\nj25l3jCc6SK5SDnaz3UA/UmaJq/deiqAOU+J7McD2qu27sOsjdnngqwfpE53HpbZ\n6V4i2wiHvsnS/pQBVVowDwIDAQABoCcwJQYJKoZIhvcNAQkOMRgwFjAUBgNVHREE\nDTALgglsb2NhbGhvc3QwDQYJKoZIhvcNAQELBQADggEBAJ9jUNoTF64aby40GNWC\nrni4RHvln2UPN587Ak6I4AA7hNFFHDZyAlsUMzkNF0LyXpm/64g/OR70oPfCix4Q\nvBdkAxo4k7OINHv/USi+S9cgdscAsR9fx8Hs1vIOiDSGrSKgrHjnGFnFuxbwNUau\n6uzj1fuUYHOYcVNbhdCAmV8KkEEq60pR+lzGKwQrSiyObUbRjPrArYnlTKKLiY2Z\nmsCKFevggGIfLaY7EWk+k7DJI8eRFp0GJuey7Bdig7y/0C22VQuloctpUXY1ApYU\nZNgWAURoqzIdiCVrvaDKZ87uOyqdLztqBFRKjq6ilip47aCY6DLqbbqRTscUF+rt\n1dU=\n-----END CERTIFICATE REQUEST-----\n'</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDYjCCAkqgAwIBAgIUeasEfAE4YRImny5NDLBoMxwfFKYwDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzlaFw0yNDExMjcxNTU5MzlaMGIxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczENMAsGA1UEAwwEWm9ybzCCASIwDQYJKoZIhvcN\nAQEBBQADggEPADCCAQoCggEBALEWcC0KlL89P/MVlT7ko0HyVBMexeKEPUZCBEzb\nw80qH0bFO7zD8yWTPJV3LgGhgKUc+mgKnvj+Em0bMBudY4TpH6RZ9D2t5nKkG+IL\ngPxifjlNUIjUm2wMymdv/94x5xznFgkGSHmcDQKiCnMKs7q/sK9/qi7gE91SwSxW\nX2yGajhrrA0Y5iB9ADPiXdpbfaQE7xxI2LpGOfirG8ukZqmpBhxUNdk0nGcZ5kjy\n0DRVwkfXitFO7C4UmrFLnUhb4I9uZd4wnOkiuUg52s91AP1Jmiav3XoqgDlPiezH\nA9qrtu7DrI3Z54KsH6ROdx6W2eleItsIh77J0v6UAVVaMA8CAwEAAaMYMBYwFAYD\nVR0RBA0wC4IJbG9jYWxob3N0MA0GCSqGSIb3DQEBCwUAA4IBAQByaptSS9HwKbXd\nI+L1maE6sFCWmi7MsAuDzBsjH1GAXy6nLbpNmGpWG9uPrYoHoMl0sRLVdmagNtpu\nc9eCNduyEwAY0/FlFdEY2ro/6aJmEiGZyukG8fwt0vU1UoAVWBhYTnMUZNvxknMG\nZDRD7dwG85pX1BoowuluAEdSKfEuHD05YWyIoZL/OFzO0aVcZKc4cGRVasfIU1UN\nMTjCLlmjJ4eN85WaE7qtiM1DMyrq5xJWhKpCGGXRrLRAAyoBn54JBJawCPI3NLqm\nmc3A+zGTYmShrcM0NmRM58DXuMrhnjJmD2frE1aqN/VaR2LsQmedJ+/oOuQHVNKu\n+UVAxOWg\n-----END CERTIFICATE-----\n'</t>
+  </si>
+  <si>
     <t>Shanks</t>
   </si>
   <si>
+    <t>b'\xa0\xba\x03a?\x8d\xc7\xa1&lt;\xba~\x8c\xc0`\xd8\xa0'</t>
+  </si>
+  <si>
+    <t>b'\xf2\xda\xf5\xb7\xceT_\xfd\xf1\x95\xaeS_8R\xb4t\xd6\xe3\xcc+Y\xbeHF\xa8\xf1Q\xda\x936X'</t>
+  </si>
+  <si>
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAn0LfUPRGKkDomVnhtfgk\nKnWF5QQlDqMBFNuTFOfn2Ffy6dhSZsAlru/I52YE3lee5uXbm9ap64ndtQrvqKO8\nlkLobkkEKI/+OqCdRRPvUouMtPINyVGOujLvJb31AG87qW1Lb+hmTOxBES9dI9wB\nAEZluZsUKfL5Yt7HqUSrH50c8XRgobdzBqazw1T82AC9jFPd4Uu1pxLR3VThVMEc\nz/6yJhTB/m+EEnYEIsTrmXTMS+W5mmB/JRxv65+mKM6zT7QjTyRq3OtsP20Vkzw9\nHXmllzbaMbqK7pUlgRF0JkWdyp6XIkM8SaHcNcCrNI8VWSKOcJFwNZ3tGwLH7UMD\nRQIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
+    <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIIC0DCCAbgCAQAwZDELMAkGA1UEBhMCS1IxFzAVBgNVBAgMDlRob3VzYW5kIFN1\nbm55MQ8wDQYDVQQHDAZMYSBtYXIxGjAYBgNVBAoMEVBpcmF0YXMgYW7Ds25pbW9z\nMQ8wDQYDVQQDDAZTaGFua3MwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIB\nAQCfQt9Q9EYqQOiZWeG1+CQqdYXlBCUOowEU25MU5+fYV/Lp2FJmwCWu78jnZgTe\nV57m5dub1qnrid21Cu+oo7yWQuhuSQQoj/46oJ1FE+9Si4y08g3JUY66Mu8lvfUA\nbzupbUtv6GZM7EERL10j3AEARmW5mxQp8vli3sepRKsfnRzxdGCht3MGprPDVPzY\nAL2MU93hS7WnEtHdVOFUwRzP/rImFMH+b4QSdgQixOuZdMxL5bmaYH8lHG/rn6Yo\nzrNPtCNPJGrc62w/bRWTPD0deaWXNtoxuorulSWBEXQmRZ3KnpciQzxJodw1wKs0\njxVZIo5wkXA1ne0bAsftQwNFAgMBAAGgJzAlBgkqhkiG9w0BCQ4xGDAWMBQGA1Ud\nEQQNMAuCCWxvY2FsaG9zdDANBgkqhkiG9w0BAQsFAAOCAQEActLj+FnfPq+GnJQ3\nq0PnEj4X7HRKPbbZYXyAwD9PuuyazjRFaC2xxF44eNQ329AiMfU3EVZ5ShvtfxA9\nUw7O2AI4cZlUUE19M5V6qRoFrP0uOI/rvpHjAd8LKavnQ6aJ3NJ3/u1FlxGJavf+\nMd2ZNSmtaBYq9y7hhyse/kXANvoLCxydsbHSHEeDtNwJha4fb8zsLkqgkKPHOAdl\n8JBbWpVG/kp83RnQxecpxXsVHNdBZrDpoSMe4Fs5UHZvE9+r57in3DnsyaxMh1hV\ngI8yMqpNFrSiCc70smSdekF0f+YqV2EpQSZiMOh31fReGOOo1NQErrjJOet5Afwm\nN5DL6Q==\n-----END CERTIFICATE REQUEST-----\n'</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDZDCCAkygAwIBAgIUNbdyrUGvv6Bi7hk5HdUAkjBJK4EwDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzlaFw0yNDExMjcxNTU5MzlaMGQxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczEPMA0GA1UEAwwGU2hhbmtzMIIBIjANBgkqhkiG\n9w0BAQEFAAOCAQ8AMIIBCgKCAQEAn0LfUPRGKkDomVnhtfgkKnWF5QQlDqMBFNuT\nFOfn2Ffy6dhSZsAlru/I52YE3lee5uXbm9ap64ndtQrvqKO8lkLobkkEKI/+OqCd\nRRPvUouMtPINyVGOujLvJb31AG87qW1Lb+hmTOxBES9dI9wBAEZluZsUKfL5Yt7H\nqUSrH50c8XRgobdzBqazw1T82AC9jFPd4Uu1pxLR3VThVMEcz/6yJhTB/m+EEnYE\nIsTrmXTMS+W5mmB/JRxv65+mKM6zT7QjTyRq3OtsP20Vkzw9HXmllzbaMbqK7pUl\ngRF0JkWdyp6XIkM8SaHcNcCrNI8VWSKOcJFwNZ3tGwLH7UMDRQIDAQABoxgwFjAU\nBgNVHREEDTALgglsb2NhbGhvc3QwDQYJKoZIhvcNAQELBQADggEBAJToMOuk5Kpb\nVkOFGqowFC3HD5pLp8EBjZxIHb/tb20naEm5dGxQS+bFQKJbZHGiTeaSyhr5vuL9\nm4VaC48zA2QOFWbS4jZl2/1bcy47M9sqGpmztmQ1jhg+yaCMx5/BzSAKb0V54q8e\nDW0SMdccu7bnWZ0c+dXN0Vj6zzCzw9AUAqy/dDQpTvlOvjLbWXGAH+IJvFN+0QPM\nFSECMe41cR/kP6KRaPKfd0wu0n//DqJwhW79Hg6ThJOgJRtO87mNoGsD/ieoPKhW\nblEblluKYNj8vGdONxfeEFGU6l2hAGZCmequdCpPBIBCRYYRYE0w+bmJlQTfJ+6m\nggw2xTUdHn8=\n-----END CERTIFICATE-----\n'</t>
+  </si>
+  <si>
     <t>Arlong</t>
   </si>
   <si>
+    <t>b')+k\xb0\x1d\x86\x1c\x90\xc4\x8bA\x8a\xd5\x89\xae!'</t>
+  </si>
+  <si>
+    <t>b'i&amp;Jm\x10\xb5X&lt;I&lt;\x8fo\xeb\xa8)\xeb$\xa1\xc6\xab\xfc\xe0v\xb1\xb9+\xc8\xfd\xec\xf0\x07\xb1'</t>
+  </si>
+  <si>
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAnApXEIsh3H4fcHGbtBf4\nB8lc6VF1Jk8K1S2tIZ+WGKfXEWpKiseHaMpj7d+h/3ETJR30dYQ3o3ti+wOCScJw\npVmYCi3+VbikJHZU8fwK9w35BsGTgoSFBBCb38I9hhAfOUOcekn2X7IegILaS4d7\n1DLFh6TTIkx7zAO/CVIQWH94fJB+tA0UCF7D2yT++/I69u9A6j9eP1jwpqedsFkw\ng7heiXl64x3aYKnt4HIuAhwQPKaCMA/k84jTGrhv4BqoiaoAooI6TsuQtwQmHMgn\nMzZPsR9JIuYX92wfGZ/Xb2rSP8cUU4TKyS+z8MK7wgNGGdYtYf/d7kHIHD/VwoJ6\nrwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
-    <t>b'\xb9\x8e\x87\x84\x94\x0ba\xe3\xf6\x8bKG\nM\x0c0'</t>
-  </si>
-  <si>
-    <t>b'7\x9a=v\x95\xc0\x1d\x16\xdf\x9dG\x83\x8b\xfb\xbfs\xe4\x86\x03\xdc\x91\xbc\x11\xc8\x9f~\xfd\xdd\xa3Y\x1c\xb9'</t>
-  </si>
-  <si>
-    <t>b'\xc18\xe6k\r{\x10\xd6\x17R#\xcb\xdd\xa7\xff\xf8'</t>
-  </si>
-  <si>
-    <t>b'\xe4v\x19\x8d\x12\xcd\x0b\xc6J&gt;\x1e;D\xc8\xb6\xa6{\x8d,\xb2\x9cs\x85%(zoF\xf1n\x1fS'</t>
-  </si>
-  <si>
-    <t>b'\x86}\xb5\xe1E:&gt;S\xaf\x99{\xbe\xf1\x01J6'</t>
-  </si>
-  <si>
-    <t>b'xC-p\xc9\x9f@\x15i\\X+\x89\x02\xfe\x12\xff-G\xf4\xf44\xc4\xb5\x9dg\xee&gt;\xe7F\xa5\xc4'</t>
-  </si>
-  <si>
-    <t>b'CD\x9a\xafkL}\xbe\xed\xadJ\xe3\xff\xcfu1'</t>
-  </si>
-  <si>
-    <t>b'\x81\x0e3\xd6I\x12"M\x81Z\xf5,6\xe2\xa6\x81\xe7\x83\xd5\xa1:\x00-\xcc\xf2\'\xf7;\xa3\x17\xc0b'</t>
-  </si>
-  <si>
-    <t>b'\xa5#.&lt;\xa2\xe7+\xe5\xd5\x0buF\xa0M\xc1\xdd'</t>
-  </si>
-  <si>
-    <t>b'\x8bI\xcc\xd5\x0c\xc5\x10!\xdfn\x1ekh\xb1\x82\xdf\xc7\x12\x94\xca\x9fbn{\xc1\x03\x89\xa6s\x8a\x02\xa8'</t>
-  </si>
-  <si>
-    <t>b'M\x8e4\x8f\xf4\x0e\x92\xf1\xc1\xb3\xa1V+\x8b{\xb2'</t>
-  </si>
-  <si>
-    <t>b'\xe2\xfb\xfc3\xadz\xae\x9b\xd9gY\xedj\x89\x0b3`\x14B\xa9\xb3\x0f\xa3\xf43D\x80vG\x90xb'</t>
-  </si>
-  <si>
-    <t>b'\xa0\xba\x03a?\x8d\xc7\xa1&lt;\xba~\x8c\xc0`\xd8\xa0'</t>
-  </si>
-  <si>
-    <t>b'\xf2\xda\xf5\xb7\xceT_\xfd\xf1\x95\xaeS_8R\xb4t\xd6\xe3\xcc+Y\xbeHF\xa8\xf1Q\xda\x936X'</t>
-  </si>
-  <si>
-    <t>b')+k\xb0\x1d\x86\x1c\x90\xc4\x8bA\x8a\xd5\x89\xae!'</t>
-  </si>
-  <si>
-    <t>b'i&amp;Jm\x10\xb5X&lt;I&lt;\x8fo\xeb\xa8)\xeb$\xa1\xc6\xab\xfc\xe0v\xb1\xb9+\xc8\xfd\xec\xf0\x07\xb1'</t>
+    <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIIC0DCCAbgCAQAwZDELMAkGA1UEBhMCS1IxFzAVBgNVBAgMDlRob3VzYW5kIFN1\nbm55MQ8wDQYDVQQHDAZMYSBtYXIxGjAYBgNVBAoMEVBpcmF0YXMgYW7Ds25pbW9z\nMQ8wDQYDVQQDDAZBcmxvbmcwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIB\nAQCcClcQiyHcfh9wcZu0F/gHyVzpUXUmTwrVLa0hn5YYp9cRakqKx4doymPt36H/\ncRMlHfR1hDeje2L7A4JJwnClWZgKLf5VuKQkdlTx/Ar3DfkGwZOChIUEEJvfwj2G\nEB85Q5x6SfZfsh6AgtpLh3vUMsWHpNMiTHvMA78JUhBYf3h8kH60DRQIXsPbJP77\n8jr270DqP14/WPCmp52wWTCDuF6JeXrjHdpgqe3gci4CHBA8poIwD+TziNMauG/g\nGqiJqgCigjpOy5C3BCYcyCczNk+xH0ki5hf3bB8Zn9dvatI/xxRThMrJL7PwwrvC\nA0YZ1i1h/93uQcgcP9XCgnqvAgMBAAGgJzAlBgkqhkiG9w0BCQ4xGDAWMBQGA1Ud\nEQQNMAuCCWxvY2FsaG9zdDANBgkqhkiG9w0BAQsFAAOCAQEAf33IIffYbooHxxsS\nuRg6qSBbp+MavbmGrP2gPr3ywPySDrLQ5CmXrKRfEa+8TinuFXVeJMdKUdoLuNtT\n0b+bx9XBh3hBNK+quDsoeXSJ3nrWaPnKjf3wnsWL9LFjkEP8Va8AKcGps6XB8nj5\nGCo6oiuvl4WQ6cpDhPfEF75Gg3Z6KeH87H44u6svaFdMZ3lHJcPbuEcLc9RiPAgi\nmRm5P5jWwAxfw/7DkFVO3r3eSrAv746z/N5091dBgZnBGF7RwO9iTaFuWFq5b4Ls\np7hah7Jx99CA2ceiNWtu0nJJkkDiaBHLYCKvBbwKDQ2tsTBoPpY7+Lm6xhW6p60o\nKrcm+A==\n-----END CERTIFICATE REQUEST-----\n'</t>
+  </si>
+  <si>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDZDCCAkygAwIBAgIUR5lFb7vM253ktWmUp4qfgOaDEN4wDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzlaFw0yNDExMjcxNTU5MzlaMGQxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczEPMA0GA1UEAwwGQXJsb25nMIIBIjANBgkqhkiG\n9w0BAQEFAAOCAQ8AMIIBCgKCAQEAnApXEIsh3H4fcHGbtBf4B8lc6VF1Jk8K1S2t\nIZ+WGKfXEWpKiseHaMpj7d+h/3ETJR30dYQ3o3ti+wOCScJwpVmYCi3+VbikJHZU\n8fwK9w35BsGTgoSFBBCb38I9hhAfOUOcekn2X7IegILaS4d71DLFh6TTIkx7zAO/\nCVIQWH94fJB+tA0UCF7D2yT++/I69u9A6j9eP1jwpqedsFkwg7heiXl64x3aYKnt\n4HIuAhwQPKaCMA/k84jTGrhv4BqoiaoAooI6TsuQtwQmHMgnMzZPsR9JIuYX92wf\nGZ/Xb2rSP8cUU4TKyS+z8MK7wgNGGdYtYf/d7kHIHD/VwoJ6rwIDAQABoxgwFjAU\nBgNVHREEDTALgglsb2NhbGhvc3QwDQYJKoZIhvcNAQELBQADggEBAGgD/buTsxqK\nV7e4TyJphl7i2d2VWkndKvGJ6ZMiVq7EKt0wqL7ELWjECR6bBD58gUBjTcqbuSlG\nDcRGPcfzbNGoKjzZFs65oiRIjUj9Bk3W6enxbrQV/6JQ17ZlM16pxlpmYawgePDT\n3r2UraapkMkIEfP2v0A4EnSOaMvaao/r8OyQkFjSsGA4Jk5pMpP7KwP4/e1ct9rF\noSoj4Jv/jYQPkPY/aD0Uv03IGinP7u+TZ7G+J3NdHRFYmhGSiBrbiGEuEL274qmU\n8Kdcxh7SOXFZ5Cxfx4WPh6NA5Lv0Rf6ZZo70wYg9BlWus2VtBkFF6YHTmr4eEATx\npSbJkgMaFAA=\n-----END CERTIFICATE-----\n'</t>
   </si>
 </sst>
 </file>
@@ -491,20 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="110.88671875" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="234.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,117 +569,171 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/datos_cripto.xlsx
+++ b/datos_cripto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C30734-3F51-4D0A-81E7-E089C172A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB937765-A688-4FD8-A1AD-8A3D6612E922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2479" yWindow="4470" windowWidth="19534" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Nickname</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>b'-----BEGIN CERTIFICATE-----\nMIIDZDCCAkygAwIBAgIUR5lFb7vM253ktWmUp4qfgOaDEN4wDQYJKoZIhvcNAQEL\nBQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUxGTAXBgNVBAcM\nEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRhIGNvcnAuMTAe\nFw0yMzExMjgxNTU5MzlaFw0yNDExMjcxNTU5MzlaMGQxCzAJBgNVBAYTAktSMRcw\nFQYDVQQIDA5UaG91c2FuZCBTdW5ueTEPMA0GA1UEBwwGTGEgbWFyMRowGAYDVQQK\nDBFQaXJhdGFzIGFuw7NuaW1vczEPMA0GA1UEAwwGQXJsb25nMIIBIjANBgkqhkiG\n9w0BAQEFAAOCAQ8AMIIBCgKCAQEAnApXEIsh3H4fcHGbtBf4B8lc6VF1Jk8K1S2t\nIZ+WGKfXEWpKiseHaMpj7d+h/3ETJR30dYQ3o3ti+wOCScJwpVmYCi3+VbikJHZU\n8fwK9w35BsGTgoSFBBCb38I9hhAfOUOcekn2X7IegILaS4d71DLFh6TTIkx7zAO/\nCVIQWH94fJB+tA0UCF7D2yT++/I69u9A6j9eP1jwpqedsFkwg7heiXl64x3aYKnt\n4HIuAhwQPKaCMA/k84jTGrhv4BqoiaoAooI6TsuQtwQmHMgnMzZPsR9JIuYX92wf\nGZ/Xb2rSP8cUU4TKyS+z8MK7wgNGGdYtYf/d7kHIHD/VwoJ6rwIDAQABoxgwFjAU\nBgNVHREEDTALgglsb2NhbGhvc3QwDQYJKoZIhvcNAQELBQADggEBAGgD/buTsxqK\nV7e4TyJphl7i2d2VWkndKvGJ6ZMiVq7EKt0wqL7ELWjECR6bBD58gUBjTcqbuSlG\nDcRGPcfzbNGoKjzZFs65oiRIjUj9Bk3W6enxbrQV/6JQ17ZlM16pxlpmYawgePDT\n3r2UraapkMkIEfP2v0A4EnSOaMvaao/r8OyQkFjSsGA4Jk5pMpP7KwP4/e1ct9rF\noSoj4Jv/jYQPkPY/aD0Uv03IGinP7u+TZ7G+J3NdHRFYmhGSiBrbiGEuEL274qmU\n8Kdcxh7SOXFZ5Cxfx4WPh6NA5Lv0Rf6ZZo70wYg9BlWus2VtBkFF6YHTmr4eEATx\npSbJkgMaFAA=\n-----END CERTIFICATE-----\n'</t>
+  </si>
+  <si>
+    <t>Entidad</t>
   </si>
 </sst>
 </file>
@@ -545,18 +548,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="234.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,8 +578,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -595,8 +601,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -615,8 +624,11 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -635,8 +647,11 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -655,8 +670,11 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -675,8 +693,11 @@
       <c r="F6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -695,8 +716,11 @@
       <c r="F7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -715,8 +739,11 @@
       <c r="F8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -734,6 +761,9 @@
       </c>
       <c r="F9" t="s">
         <v>53</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
